--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061186F-0936-4D08-81A5-0FF35173083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E469E9-82DA-4362-AE2C-0E0457CF9866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="486">
   <si>
     <t>CPF</t>
   </si>
@@ -1497,6 +1497,18 @@
   </si>
   <si>
     <t>DATEPART(DATE,DATA_CAD)</t>
+  </si>
+  <si>
+    <t>CODIGO DO SUB ACIONAMENTO CADASTRADO</t>
+  </si>
+  <si>
+    <t>NOME DO SUB ACIONAMENTO CADASTRADO</t>
+  </si>
+  <si>
+    <t>ID_SUB_AC</t>
+  </si>
+  <si>
+    <t>NOME_SUB_AC</t>
   </si>
 </sst>
 </file>
@@ -7523,10 +7535,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7889,74 +7901,62 @@
       <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
+      <c r="A13" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37">
+        <v>50</v>
+      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>480</v>
-      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
+      <c r="A14" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37">
+        <v>50</v>
+      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>480</v>
-      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D15" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>462</v>
@@ -7968,17 +7968,77 @@
         <v>464</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K15" s="37"/>
-      <c r="L15" s="37" t="s">
-        <v>474</v>
-      </c>
+      <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E469E9-82DA-4362-AE2C-0E0457CF9866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA93CE7-D173-41BD-A0C1-DEA7A4DF0873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="487">
   <si>
     <t>CPF</t>
   </si>
@@ -1475,15 +1475,9 @@
     <t>PESSOAS_TELEFONES</t>
   </si>
   <si>
-    <t>Cast(PT.DDD_TEL as VARCHAR) + Cast(PT.NR_TEL as VARCHAR)</t>
-  </si>
-  <si>
     <t>CODIGO DO CRM IMPLANTADO</t>
   </si>
   <si>
-    <t>PESSOA_TELEFONES.DDD_TEL + PESSOAS_TELEFONES.NR_TEL</t>
-  </si>
-  <si>
     <t>TIPO_CREDORES</t>
   </si>
   <si>
@@ -1509,6 +1503,15 @@
   </si>
   <si>
     <t>NOME_SUB_AC</t>
+  </si>
+  <si>
+    <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
+  </si>
+  <si>
+    <t>Cast(PESSOAS_TELEFONES.DDD_TEL as VARCHAR) + Cast(PESSOAS_TELEFONES.NR_TEL as VARCHAR) as 'FONE'</t>
+  </si>
+  <si>
+    <t>FONE</t>
   </si>
 </sst>
 </file>
@@ -7535,10 +7538,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7627,11 +7630,11 @@
         <v>465</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
@@ -7723,7 +7726,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -7738,13 +7741,13 @@
         <v>464</v>
       </c>
       <c r="I7" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="K7" s="37" t="s">
         <v>477</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>479</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
@@ -7902,10 +7905,10 @@
     </row>
     <row r="13" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37">
@@ -7926,10 +7929,10 @@
     </row>
     <row r="14" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37">
@@ -7971,7 +7974,7 @@
         <v>465</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
@@ -8001,7 +8004,7 @@
         <v>465</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
@@ -8031,14 +8034,38 @@
         <v>473</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37">
+        <v>30</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA93CE7-D173-41BD-A0C1-DEA7A4DF0873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E8773-1FFF-4C21-A831-A3E2A385BB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="491">
   <si>
     <t>CPF</t>
   </si>
@@ -740,15 +740,6 @@
     <t>NOME DO ACIONAMENTO CADASTRADO</t>
   </si>
   <si>
-    <t>INICIO DA CHAMADA</t>
-  </si>
-  <si>
-    <t>FIM DA CHAMADA</t>
-  </si>
-  <si>
-    <t>TELEFONE ATENDIDO</t>
-  </si>
-  <si>
     <t>PRIMEIRO LOGIN DO OPERADOR NA FERRAMENTA DENTRO DO DIA</t>
   </si>
   <si>
@@ -1512,6 +1503,27 @@
   </si>
   <si>
     <t>FONE</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>INICIO DO ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+  </si>
+  <si>
+    <t>FIM DO ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>TELEFONE ACIONADO</t>
   </si>
 </sst>
 </file>
@@ -2314,10 +2326,10 @@
         <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2584,7 +2596,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I3" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
@@ -2603,10 +2615,10 @@
         <v>189</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>186</v>
@@ -2621,31 +2633,31 @@
         <v>192</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2653,34 +2665,34 @@
         <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -2691,31 +2703,31 @@
         <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -2726,7 +2738,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2740,7 +2752,7 @@
         <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -2754,7 +2766,7 @@
         <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -2765,10 +2777,10 @@
         <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -2779,10 +2791,10 @@
         <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -2793,10 +2805,10 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -2807,10 +2819,10 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -2821,16 +2833,16 @@
         <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -2838,16 +2850,16 @@
         <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -2855,16 +2867,16 @@
         <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,16 +2884,16 @@
         <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2889,16 +2901,16 @@
         <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2906,16 +2918,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,16 +2935,16 @@
         <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,16 +2952,16 @@
         <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,16 +2969,16 @@
         <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2974,16 +2986,16 @@
         <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2991,16 +3003,16 @@
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3008,16 +3020,16 @@
         <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,16 +3037,16 @@
         <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3042,16 +3054,16 @@
         <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3059,16 +3071,16 @@
         <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3219,7 +3231,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I4" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -3238,10 +3250,10 @@
         <v>189</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>186</v>
@@ -3256,31 +3268,31 @@
         <v>192</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,36 +3300,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,33 +3340,33 @@
         <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="4">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3377,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
@@ -3379,7 +3391,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
@@ -3393,7 +3405,7 @@
         <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
@@ -3404,10 +3416,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="4">
         <v>20</v>
@@ -3421,7 +3433,7 @@
         <v>215</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="4">
         <v>20</v>
@@ -3432,10 +3444,10 @@
         <v>138</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="4">
         <v>20</v>
@@ -3446,10 +3458,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="4">
         <v>100</v>
@@ -3463,7 +3475,7 @@
         <v>227</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E15" s="4">
         <v>20</v>
@@ -3477,7 +3489,7 @@
         <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="4">
         <v>50</v>
@@ -3488,7 +3500,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>179</v>
@@ -3505,7 +3517,7 @@
         <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="4">
         <v>20</v>
@@ -3659,7 +3671,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J4" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="47"/>
@@ -3678,10 +3690,10 @@
         <v>189</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>186</v>
@@ -3696,31 +3708,31 @@
         <v>192</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3728,36 +3740,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3768,33 +3780,33 @@
         <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="4">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3805,7 +3817,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
@@ -3819,7 +3831,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
@@ -3833,7 +3845,7 @@
         <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
@@ -3844,10 +3856,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="4">
         <v>20</v>
@@ -3858,10 +3870,10 @@
         <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="4">
         <v>20</v>
@@ -3875,7 +3887,7 @@
         <v>215</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="4">
         <v>20</v>
@@ -3886,10 +3898,10 @@
         <v>138</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="4">
         <v>20</v>
@@ -3900,10 +3912,10 @@
         <v>139</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E15" s="4">
         <v>100</v>
@@ -3914,16 +3926,16 @@
         <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="4">
         <v>20</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3934,7 +3946,7 @@
         <v>227</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E17" s="4">
         <v>20</v>
@@ -3948,7 +3960,7 @@
         <v>228</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E18" s="4">
         <v>50</v>
@@ -3959,7 +3971,7 @@
         <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>179</v>
@@ -3976,7 +3988,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E20" s="4">
         <v>20</v>
@@ -4027,7 +4039,7 @@
         <v>189</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>186</v>
@@ -4036,34 +4048,34 @@
         <v>190</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>370</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4071,33 +4083,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4111,27 +4123,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4172,7 +4184,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="4">
         <v>20</v>
@@ -4183,7 +4195,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" s="4">
         <v>100</v>
@@ -4194,7 +4206,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -4205,7 +4217,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -4216,7 +4228,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D11" s="4">
         <v>4</v>
@@ -4227,7 +4239,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -4238,7 +4250,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -4249,7 +4261,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -4257,10 +4269,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
@@ -4271,7 +4283,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
@@ -4282,7 +4294,7 @@
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D17" s="4">
         <v>8</v>
@@ -4293,7 +4305,7 @@
         <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D18" s="4">
         <v>8</v>
@@ -4304,7 +4316,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D19" s="4">
         <v>8</v>
@@ -4315,7 +4327,7 @@
         <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D20" s="4">
         <v>8</v>
@@ -4326,7 +4338,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D21" s="4">
         <v>8</v>
@@ -4337,7 +4349,7 @@
         <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D22" s="4">
         <v>8</v>
@@ -4348,7 +4360,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D23" s="4">
         <v>8</v>
@@ -4359,7 +4371,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D24" s="4">
         <v>8</v>
@@ -4413,7 +4425,7 @@
         <v>189</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>186</v>
@@ -4422,34 +4434,34 @@
         <v>190</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>370</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4457,33 +4469,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4497,27 +4509,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4559,7 +4571,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="4">
         <v>20</v>
@@ -4570,7 +4582,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" s="4">
         <v>100</v>
@@ -4581,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -4592,7 +4604,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -4603,7 +4615,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -4614,7 +4626,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="4">
         <v>50</v>
@@ -4625,7 +4637,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -4636,7 +4648,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
@@ -4690,7 +4702,7 @@
         <v>189</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>186</v>
@@ -4699,34 +4711,34 @@
         <v>190</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>370</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4734,33 +4746,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4774,27 +4786,27 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4835,7 +4847,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="4">
         <v>20</v>
@@ -4846,7 +4858,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" s="4">
         <v>100</v>
@@ -4857,7 +4869,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -4868,7 +4880,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
@@ -4911,18 +4923,18 @@
         <v>192</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H3" s="31">
         <v>45467</v>
@@ -4931,12 +4943,12 @@
         <v>45471</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H4" s="31">
         <v>45474</v>
@@ -4945,12 +4957,12 @@
         <v>45476</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H5" s="31">
         <v>45477</v>
@@ -4959,12 +4971,12 @@
         <v>45481</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H6" s="31">
         <v>45482</v>
@@ -4973,12 +4985,12 @@
         <v>45484</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H7" s="31">
         <v>45488</v>
@@ -4987,12 +4999,12 @@
         <v>45490</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H8" s="31">
         <v>45491</v>
@@ -5001,12 +5013,12 @@
         <v>45495</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H9" s="31">
         <v>45496</v>
@@ -5015,12 +5027,12 @@
         <v>45502</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H10" s="31">
         <v>45503</v>
@@ -5029,12 +5041,12 @@
         <v>45504</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H11" s="31">
         <v>45505</v>
@@ -5043,12 +5055,12 @@
         <v>45509</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H12" s="31">
         <v>45510</v>
@@ -5057,12 +5069,12 @@
         <v>45512</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H13" s="31">
         <v>45513</v>
@@ -5071,12 +5083,12 @@
         <v>45517</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H14" s="31">
         <v>45518</v>
@@ -5085,12 +5097,12 @@
         <v>45520</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H15" s="31">
         <v>45523</v>
@@ -5099,7 +5111,7 @@
         <v>45525</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5170,51 +5182,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5952,7 +5964,7 @@
         <v>177</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>170</v>
@@ -6032,7 +6044,7 @@
         <v>177</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>170</v>
@@ -6112,7 +6124,7 @@
         <v>170</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>170</v>
@@ -6186,7 +6198,7 @@
         <v>178</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>170</v>
@@ -6260,7 +6272,7 @@
         <v>177</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>170</v>
@@ -6322,7 +6334,7 @@
         <v>180</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>170</v>
@@ -6354,7 +6366,7 @@
         <v>182</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>182</v>
@@ -6378,7 +6390,7 @@
         <v>177</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>170</v>
@@ -6428,7 +6440,7 @@
         <v>171</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>170</v>
@@ -6466,7 +6478,7 @@
         <v>182</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>170</v>
@@ -6498,7 +6510,7 @@
         <v>182</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>170</v>
@@ -6524,7 +6536,7 @@
         <v>182</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>170</v>
@@ -6550,7 +6562,7 @@
         <v>182</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>170</v>
@@ -6576,7 +6588,7 @@
         <v>182</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>170</v>
@@ -6602,7 +6614,7 @@
         <v>182</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>170</v>
@@ -6628,7 +6640,7 @@
         <v>182</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>170</v>
@@ -6654,7 +6666,7 @@
         <v>182</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>170</v>
@@ -6668,7 +6680,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>178</v>
@@ -6825,7 +6837,7 @@
         <v>189</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>186</v>
@@ -6834,34 +6846,34 @@
         <v>190</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="M1" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="N1" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>370</v>
-      </c>
       <c r="O1" s="37" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6877,27 +6889,27 @@
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>442</v>
-      </c>
       <c r="J2" s="37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M2" s="41"/>
       <c r="N2" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -6922,7 +6934,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O3" s="41"/>
     </row>
@@ -6947,7 +6959,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O4" s="41"/>
     </row>
@@ -6972,7 +6984,7 @@
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O5" s="41"/>
     </row>
@@ -6997,7 +7009,7 @@
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
       <c r="N6" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O6" s="41"/>
     </row>
@@ -7022,7 +7034,7 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O7" s="41"/>
     </row>
@@ -7031,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45">
@@ -7047,16 +7059,16 @@
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="N8" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37">
@@ -7064,34 +7076,34 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I9" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>444</v>
-      </c>
-      <c r="I9" s="44" t="s">
+      <c r="J9" s="37" t="s">
         <v>442</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>445</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37">
@@ -7099,27 +7111,27 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O10" s="41"/>
     </row>
@@ -7136,36 +7148,36 @@
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>442</v>
-      </c>
       <c r="J11" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="37" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O11" s="41"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37">
@@ -7173,34 +7185,34 @@
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
       <c r="N12" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O12" s="41"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37">
@@ -7208,34 +7220,34 @@
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
       <c r="N13" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O13" s="41"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37">
@@ -7243,34 +7255,34 @@
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
       <c r="N14" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37">
@@ -7278,25 +7290,25 @@
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
       <c r="N15" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O15" s="41"/>
     </row>
@@ -7321,7 +7333,7 @@
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O16" s="41"/>
     </row>
@@ -7338,27 +7350,27 @@
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="41" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O17" s="41"/>
     </row>
@@ -7375,27 +7387,27 @@
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>442</v>
-      </c>
       <c r="J18" s="37" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="37" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O18" s="41"/>
     </row>
@@ -7412,27 +7424,27 @@
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>442</v>
-      </c>
       <c r="J19" s="37" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="37" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M19" s="41"/>
       <c r="N19" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O19" s="41"/>
     </row>
@@ -7449,25 +7461,25 @@
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I20" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>442</v>
-      </c>
       <c r="J20" s="37" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
       <c r="N20" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O20" s="41"/>
     </row>
@@ -7484,25 +7496,25 @@
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="I21" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G21" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>442</v>
-      </c>
       <c r="J21" s="37" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
       <c r="N21" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O21" s="41"/>
     </row>
@@ -7527,7 +7539,7 @@
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
       <c r="N22" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O22" s="41"/>
     </row>
@@ -7540,8 +7552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7571,7 +7583,7 @@
         <v>189</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>186</v>
@@ -7580,77 +7592,85 @@
         <v>190</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="37">
         <v>10</v>
       </c>
+      <c r="E2" s="37"/>
       <c r="F2" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>465</v>
-      </c>
       <c r="J2" s="37" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="37" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M2" s="37"/>
       <c r="N2" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="1">
-        <v>50</v>
-      </c>
+      <c r="C3" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="37">
+        <v>20</v>
+      </c>
+      <c r="E3" s="37"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -7662,15 +7682,19 @@
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
+      <c r="C4" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="37">
+        <v>100</v>
+      </c>
+      <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -7682,15 +7706,19 @@
       <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="37">
         <v>8</v>
       </c>
+      <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -7702,15 +7730,19 @@
       <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="37">
         <v>8</v>
       </c>
+      <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -7722,61 +7754,69 @@
       <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="37">
+        <v>8</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="K7" s="37" t="s">
         <v>474</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>477</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="37">
         <v>20</v>
       </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G8" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I8" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="J8" s="37" t="s">
         <v>464</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>467</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
@@ -7784,29 +7824,33 @@
       <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
+      <c r="B9" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" s="37">
+        <v>19</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I9" s="37" t="s">
         <v>72</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
@@ -7814,29 +7858,33 @@
       <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="37">
         <v>100</v>
       </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I10" s="37" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
@@ -7844,29 +7892,33 @@
       <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
+      <c r="C11" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="37">
+        <v>19</v>
+      </c>
+      <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
@@ -7874,29 +7926,33 @@
       <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="1">
-        <v>50</v>
-      </c>
+      <c r="C12" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="37">
+        <v>200</v>
+      </c>
+      <c r="E12" s="37"/>
       <c r="F12" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
@@ -7905,18 +7961,20 @@
     </row>
     <row r="13" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="37"/>
+        <v>477</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>486</v>
+      </c>
       <c r="D13" s="37">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
@@ -7929,18 +7987,20 @@
     </row>
     <row r="14" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="C14" s="37"/>
+        <v>478</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>484</v>
+      </c>
       <c r="D14" s="37">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -7952,29 +8012,33 @@
       <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
+      <c r="B15" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="37">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37"/>
       <c r="F15" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I15" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>465</v>
-      </c>
       <c r="J15" s="37" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
@@ -7982,29 +8046,33 @@
       <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8</v>
-      </c>
+      <c r="B16" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="37">
+        <v>19</v>
+      </c>
+      <c r="E16" s="37"/>
       <c r="F16" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I16" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>465</v>
-      </c>
       <c r="J16" s="37" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
@@ -8012,33 +8080,37 @@
       <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="1">
-        <v>11</v>
-      </c>
+      <c r="B17" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" s="37">
+        <v>20</v>
+      </c>
+      <c r="E17" s="37"/>
       <c r="F17" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
@@ -8048,15 +8120,17 @@
         <v>108</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="C18" s="37"/>
       <c r="D18" s="37">
         <v>30</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -8175,7 +8249,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
@@ -8194,10 +8268,10 @@
         <v>189</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>186</v>
@@ -8212,31 +8286,31 @@
         <v>192</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,34 +8318,34 @@
         <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,34 +8356,34 @@
         <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,10 +8391,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8334,7 +8408,7 @@
         <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8348,7 +8422,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8362,7 +8436,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8376,7 +8450,7 @@
         <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8387,10 +8461,10 @@
         <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8401,10 +8475,10 @@
         <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8415,10 +8489,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8432,7 +8506,7 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8548,7 +8622,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
@@ -8567,10 +8641,10 @@
         <v>189</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>186</v>
@@ -8585,31 +8659,31 @@
         <v>192</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8617,34 +8691,34 @@
         <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8655,34 +8729,34 @@
         <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8690,10 +8764,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8707,7 +8781,7 @@
         <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8721,7 +8795,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8735,7 +8809,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8749,7 +8823,7 @@
         <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8760,10 +8834,10 @@
         <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8774,10 +8848,10 @@
         <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8788,10 +8862,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8805,7 +8879,7 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8863,7 +8937,7 @@
         <v>189</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>186</v>
@@ -8872,34 +8946,34 @@
         <v>190</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>370</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -8907,31 +8981,31 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -8945,25 +9019,25 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9004,7 +9078,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
@@ -9015,7 +9089,7 @@
         <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -9059,14 +9133,14 @@
         <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -9074,13 +9148,13 @@
         <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9088,7 +9162,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D14" s="1">
         <v>19.2</v>
@@ -9099,7 +9173,7 @@
         <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -9181,52 +9255,52 @@
         <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>145</v>
@@ -9318,7 +9392,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I4" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -9337,10 +9411,10 @@
         <v>189</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>186</v>
@@ -9355,31 +9429,31 @@
         <v>192</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -9390,31 +9464,31 @@
         <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -9425,31 +9499,31 @@
         <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -9460,7 +9534,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -9474,7 +9548,7 @@
         <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9488,7 +9562,7 @@
         <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -9499,10 +9573,10 @@
         <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -9513,10 +9587,10 @@
         <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9524,13 +9598,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -9538,13 +9612,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -9552,13 +9626,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -9566,13 +9640,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -9580,13 +9654,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -9594,13 +9668,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -9608,13 +9682,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -9622,13 +9696,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -9636,13 +9710,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -9650,13 +9724,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -9664,13 +9738,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -9678,13 +9752,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -9692,13 +9766,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -9706,13 +9780,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -9720,13 +9794,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -9734,13 +9808,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -9754,7 +9828,7 @@
         <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -10044,7 +10118,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I4" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -10063,10 +10137,10 @@
         <v>189</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>186</v>
@@ -10081,31 +10155,31 @@
         <v>192</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="P5" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="Q5" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -10116,7 +10190,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -10125,25 +10199,25 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -10154,7 +10228,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -10163,25 +10237,25 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10192,7 +10266,7 @@
         <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -10209,7 +10283,7 @@
         <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -10223,7 +10297,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -10237,7 +10311,7 @@
         <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -10251,7 +10325,7 @@
         <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -10265,7 +10339,7 @@
         <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -10279,7 +10353,7 @@
         <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -10290,10 +10364,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -10307,7 +10381,7 @@
         <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
@@ -10321,7 +10395,7 @@
         <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -10335,7 +10409,7 @@
         <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -10349,7 +10423,7 @@
         <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -10363,7 +10437,7 @@
         <v>204</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -10377,7 +10451,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
@@ -10391,7 +10465,7 @@
         <v>205</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -10405,7 +10479,7 @@
         <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -10419,7 +10493,7 @@
         <v>208</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -10433,7 +10507,7 @@
         <v>209</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -10475,7 +10549,7 @@
         <v>211</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
@@ -10483,10 +10557,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10494,7 +10568,7 @@
         <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E8773-1FFF-4C21-A831-A3E2A385BB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD76B4-5D53-4967-B866-0643D95A182B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="CHAVES" sheetId="15" state="hidden" r:id="rId2"/>
     <sheet name="ACIONA_DISCADOR" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="ACIONA_CRM" sheetId="2" r:id="rId4"/>
-    <sheet name="TELEFONE" sheetId="16" r:id="rId5"/>
-    <sheet name="EMAIL" sheetId="17" r:id="rId6"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId7"/>
+    <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
+    <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
+    <sheet name="MULTICANAIS" sheetId="9" state="hidden" r:id="rId7"/>
     <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" r:id="rId9"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId9"/>
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="ACORDOS" sheetId="7" r:id="rId11"/>
-    <sheet name="PAGAMENTOS" sheetId="8" r:id="rId12"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
     <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId13"/>
     <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId14"/>
     <sheet name="PESQUISA" sheetId="5" state="hidden" r:id="rId15"/>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD76B4-5D53-4967-B866-0643D95A182B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C457278C-9DD8-4B79-94D5-FF87C6BBE143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="498">
   <si>
     <t>CPF</t>
   </si>
@@ -1524,6 +1524,27 @@
   </si>
   <si>
     <t>TELEFONE ACIONADO</t>
+  </si>
+  <si>
+    <t>DATA_INSERT</t>
+  </si>
+  <si>
+    <t>MOMENTO QUE O DADO FOI INSERIDO NA TABELA</t>
+  </si>
+  <si>
+    <t>DATETIMENOW()</t>
+  </si>
+  <si>
+    <t>ACIONAMENTO_ID</t>
+  </si>
+  <si>
+    <t>CÓDIGO ÚNICO DO ACIONAMENTO NO CRM</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>COD_HIST_CLI</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1844,12 +1865,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1991,6 +2049,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7550,11 +7617,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7791,18 +7856,20 @@
     </row>
     <row r="8" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>46</v>
+        <v>494</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>215</v>
+        <v>495</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D8" s="37">
-        <v>20</v>
-      </c>
-      <c r="E8" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>496</v>
+      </c>
       <c r="F8" s="37" t="s">
         <v>459</v>
       </c>
@@ -7813,10 +7880,10 @@
         <v>461</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
@@ -7825,16 +7892,16 @@
     </row>
     <row r="9" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D9" s="37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37" t="s">
@@ -7847,10 +7914,10 @@
         <v>461</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>72</v>
+        <v>463</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
@@ -7859,16 +7926,16 @@
     </row>
     <row r="10" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D10" s="37">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
@@ -7884,7 +7951,7 @@
         <v>72</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
@@ -7893,16 +7960,16 @@
     </row>
     <row r="11" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D11" s="37">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
@@ -7915,10 +7982,10 @@
         <v>461</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>467</v>
+        <v>72</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
@@ -7927,16 +7994,16 @@
     </row>
     <row r="12" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" s="37">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37" t="s">
@@ -7952,7 +8019,7 @@
         <v>467</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
@@ -7961,25 +8028,33 @@
     </row>
     <row r="13" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>479</v>
+        <v>53</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>477</v>
+        <v>228</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D13" s="37">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>469</v>
+      </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
@@ -7987,16 +8062,16 @@
     </row>
     <row r="14" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D14" s="37">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37" t="s">
@@ -8013,33 +8088,25 @@
     </row>
     <row r="15" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>47</v>
+        <v>480</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D15" s="37">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>475</v>
-      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -8047,10 +8114,10 @@
     </row>
     <row r="16" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>488</v>
@@ -8079,18 +8146,18 @@
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
     </row>
-    <row r="17" spans="1:14" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D17" s="37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37" t="s">
@@ -8103,45 +8170,105 @@
         <v>461</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K17" s="37"/>
-      <c r="L17" s="37" t="s">
-        <v>482</v>
-      </c>
+      <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
     </row>
-    <row r="18" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>484</v>
       </c>
       <c r="D18" s="37">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>483</v>
+      </c>
       <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="37" t="s">
+        <v>482</v>
+      </c>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
     </row>
+    <row r="19" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19" s="37">
+        <v>30</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="D20" s="37">
+        <v>19</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066F02D7-9E65-467E-866E-22D479B1BF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF0C1A9-3639-446C-AA48-89375F1DD9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -1452,9 +1452,6 @@
     <t>ORIGEM CADASTRAL DO EMAIL</t>
   </si>
   <si>
-    <t>DADA DA CRIAÇÃO DO ACORDO</t>
-  </si>
-  <si>
     <t>USUARIO_ACORDO</t>
   </si>
   <si>
@@ -1640,6 +1637,9 @@
   </si>
   <si>
     <t>ID DO PAGAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>DATA DA CRIAÇÃO DO ACORDO</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2588,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>420</v>
@@ -2677,7 +2677,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>422</v>
@@ -2890,22 +2890,22 @@
         <v>395</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>463</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>464</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>418</v>
@@ -2933,7 +2933,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>422</v>
@@ -2961,7 +2961,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>422</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="14" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>467</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>468</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>419</v>
@@ -3020,7 +3020,7 @@
         <v>242</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D15" s="31">
         <v>9.1999999999999993</v>
@@ -3102,7 +3102,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:J17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="2" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>420</v>
@@ -3209,10 +3209,10 @@
         <v>395</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
@@ -3407,22 +3407,22 @@
         <v>395</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>470</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>471</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>418</v>
@@ -3441,13 +3441,13 @@
         <v>395</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J11" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="K11" s="31" t="s">
         <v>507</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>508</v>
       </c>
       <c r="L11" s="31"/>
     </row>
@@ -3456,7 +3456,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>418</v>
@@ -3475,22 +3475,22 @@
         <v>395</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J12" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="31" t="s">
         <v>507</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>508</v>
       </c>
       <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>473</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>474</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>419</v>
@@ -3509,20 +3509,20 @@
         <v>395</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>475</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>476</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>418</v>
@@ -3541,13 +3541,13 @@
         <v>395</v>
       </c>
       <c r="I14" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="J14" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="K14" s="31" t="s">
         <v>503</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>504</v>
       </c>
       <c r="L14" s="31"/>
     </row>
@@ -3559,7 +3559,7 @@
         <v>243</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D15" s="31">
         <v>9.1999999999999993</v>
@@ -3575,10 +3575,10 @@
         <v>395</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -3716,7 +3716,7 @@
         <v>330</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -7479,7 +7479,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F21" sqref="F21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="2" spans="1:13" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>512</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>513</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>420</v>
@@ -8257,7 +8257,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8320,7 +8320,7 @@
         <v>404</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
@@ -8493,13 +8493,13 @@
         <v>395</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="46"/>
@@ -8531,7 +8531,7 @@
         <v>404</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
@@ -8561,13 +8561,13 @@
         <v>395</v>
       </c>
       <c r="I12" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>489</v>
-      </c>
       <c r="K12" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="46"/>
@@ -8599,7 +8599,7 @@
         <v>404</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
@@ -8631,13 +8631,13 @@
         <v>395</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="46"/>
@@ -8853,7 +8853,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8880,7 +8880,7 @@
         <v>395</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>409</v>
@@ -8894,7 +8894,7 @@
         <v>439</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>422</v>
@@ -8913,10 +8913,10 @@
         <v>395</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
@@ -9089,13 +9089,13 @@
         <v>395</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="50"/>
@@ -9124,14 +9124,14 @@
         <v>395</v>
       </c>
       <c r="I11" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>490</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>491</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M11" s="50"/>
     </row>
@@ -9149,7 +9149,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>393</v>
@@ -9161,13 +9161,13 @@
         <v>395</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="50"/>
@@ -9198,13 +9198,13 @@
         <v>395</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="50"/>
@@ -9233,10 +9233,10 @@
         <v>395</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF0C1A9-3639-446C-AA48-89375F1DD9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694EF48C-6405-429D-91A0-F52B3AFDF36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="5" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="517">
   <si>
     <t>CPF</t>
   </si>
@@ -1399,12 +1399,6 @@
   </si>
   <si>
     <t>ORIGEM CADASTRAL DO TELEFONE</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO STATUS DO FONE</t>
-  </si>
-  <si>
-    <t>CHAR</t>
   </si>
   <si>
     <t>0 = POSITIVO | 1 = NEGATIVO | 2 INCONSISTENTE | 5 = BLACKLIST</t>
@@ -1619,8 +1613,21 @@
     <t>DATA DE ALTERAÇÃO DE INFORMAÇÕES VINCULADAS AO EMAIL</t>
   </si>
   <si>
+    <t>ID DO ACORDO NO DW</t>
+  </si>
+  <si>
+    <t>ID DO PAGAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>DATA DA CRIAÇÃO DO ACORDO</t>
+  </si>
+  <si>
+    <t>STATUS DO TELEFONE</t>
+  </si>
+  <si>
     <t>select
 A.DATA_CAD,
+A.DATA_UP,
 '230' AS 'COD_CRM',
 B.CPFCGC_PES,
 A.RUA_ENDE,
@@ -1632,21 +1639,12 @@
 INNER JOIN TIPOS_ENDERECOS D WITH (NOLOCK) ON A.COD_TIPE = D.COD_TIPE
 WHERE A.COD_TIPE = 6 AND A.DATA_CAD IS NOT NULL</t>
   </si>
-  <si>
-    <t>ID DO ACORDO NO DW</t>
-  </si>
-  <si>
-    <t>ID DO PAGAMENTO NO DW</t>
-  </si>
-  <si>
-    <t>DATA DA CRIAÇÃO DO ACORDO</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,6 +1716,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2019,7 +2025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2168,10 +2174,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2648,10 +2657,10 @@
     </row>
     <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>420</v>
@@ -2677,7 +2686,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>422</v>
@@ -2890,22 +2899,22 @@
         <v>395</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J10" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>480</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>482</v>
       </c>
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>418</v>
@@ -2933,7 +2942,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>422</v>
@@ -2961,7 +2970,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>422</v>
@@ -2986,10 +2995,10 @@
     </row>
     <row r="14" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>419</v>
@@ -3020,7 +3029,7 @@
         <v>242</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D15" s="31">
         <v>9.1999999999999993</v>
@@ -3161,10 +3170,10 @@
     </row>
     <row r="2" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>420</v>
@@ -3209,10 +3218,10 @@
         <v>395</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
@@ -3407,22 +3416,22 @@
         <v>395</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J10" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>480</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>482</v>
       </c>
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>418</v>
@@ -3441,13 +3450,13 @@
         <v>395</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L11" s="31"/>
     </row>
@@ -3456,7 +3465,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>418</v>
@@ -3475,22 +3484,22 @@
         <v>395</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>419</v>
@@ -3509,20 +3518,20 @@
         <v>395</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>418</v>
@@ -3541,13 +3550,13 @@
         <v>395</v>
       </c>
       <c r="I14" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="31" t="s">
         <v>501</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>503</v>
       </c>
       <c r="L14" s="31"/>
     </row>
@@ -3559,7 +3568,7 @@
         <v>243</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D15" s="31">
         <v>9.1999999999999993</v>
@@ -3575,10 +3584,10 @@
         <v>395</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -3716,7 +3725,7 @@
         <v>330</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -7478,7 +7487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F21" sqref="F21:J21"/>
     </sheetView>
   </sheetViews>
@@ -7542,10 +7551,10 @@
     </row>
     <row r="2" spans="1:13" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>420</v>
@@ -8170,7 +8179,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8257,7 +8266,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8320,7 +8329,7 @@
         <v>404</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
@@ -8493,13 +8502,13 @@
         <v>395</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J10" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>480</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>482</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="46"/>
@@ -8531,7 +8540,7 @@
         <v>404</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
@@ -8561,13 +8570,13 @@
         <v>395</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="46"/>
@@ -8599,7 +8608,7 @@
         <v>404</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
@@ -8610,16 +8619,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="31">
+        <v>30</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>445</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" s="31">
-        <v>1</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>447</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>393</v>
@@ -8631,23 +8640,23 @@
         <v>395</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>419</v>
@@ -8675,16 +8684,16 @@
         <v>89</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D16" s="31">
         <v>2</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>393</v>
@@ -8764,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8829,10 +8838,10 @@
     </row>
     <row r="2" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>420</v>
@@ -8852,8 +8861,8 @@
       <c r="J2" s="45"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="49" t="s">
-        <v>514</v>
+      <c r="M2" s="51" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8861,7 +8870,7 @@
         <v>437</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>422</v>
@@ -8880,21 +8889,21 @@
         <v>395</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>409</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>439</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>422</v>
@@ -8913,14 +8922,14 @@
         <v>395</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="50"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -8947,7 +8956,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="50"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
@@ -8974,7 +8983,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="50"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
@@ -9001,7 +9010,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="50"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
@@ -9028,7 +9037,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="50"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
@@ -9063,7 +9072,7 @@
         <v>408</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="50"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
@@ -9089,23 +9098,23 @@
         <v>395</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J10" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>482</v>
-      </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="50"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>418</v>
@@ -9124,23 +9133,23 @@
         <v>395</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31" t="s">
-        <v>491</v>
-      </c>
-      <c r="M11" s="50"/>
+        <v>489</v>
+      </c>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>418</v>
@@ -9149,7 +9158,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>393</v>
@@ -9161,23 +9170,23 @@
         <v>395</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="50"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>418</v>
@@ -9186,7 +9195,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>393</v>
@@ -9198,23 +9207,23 @@
         <v>395</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="50"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>418</v>
@@ -9233,14 +9242,14 @@
         <v>395</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="50"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
@@ -9265,7 +9274,7 @@
       <c r="J15" s="45"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="50"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -9290,7 +9299,7 @@
       <c r="J16" s="45"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="50"/>
+      <c r="M16" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9300,6 +9309,7 @@
     <mergeCell ref="M2:M16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9792,17 +9802,17 @@
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -10436,17 +10446,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA761FC-F178-4C8A-8BB2-2E508DEB0FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3CE0E8-14D4-4E24-956C-0F041DFC8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="581">
   <si>
     <t>CPF</t>
   </si>
@@ -1873,6 +1873,15 @@
   group by [H].[COD_TIT]
   ) [I] on [I].[COD_TIT] = [T].[COD_TIT]
   LEFT JOIN PESSOAS PE WITH(NoLock) ON D.COD_PES = PE.COD_PES</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>NOME DO BANCO DE DADOS ORIGEM</t>
+  </si>
+  <si>
+    <t>HOST (IP) DO BANCO ORIGEM</t>
   </si>
 </sst>
 </file>
@@ -3924,9 +3933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -8485,25 +8492,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.44140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -8575,7 +8582,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:13" ht="29.4" thickBot="1">
+    <row r="3" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -8609,7 +8616,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="33" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8639,7 +8646,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8669,7 +8676,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -8699,7 +8706,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -9117,22 +9124,22 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="22.95" customHeight="1" thickBot="1">
+    <row r="20" spans="1:12" ht="30.6" customHeight="1" thickBot="1">
       <c r="A20" s="31" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>403</v>
+        <v>513</v>
       </c>
       <c r="D20" s="31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
@@ -9141,33 +9148,85 @@
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
     </row>
-    <row r="21" spans="1:12" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>411</v>
+    <row r="21" spans="1:12" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A21" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>579</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>407</v>
+        <v>513</v>
       </c>
       <c r="D21" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="43" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="45"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A22" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D22" s="31">
+        <v>30</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" s="31">
+        <v>19</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3CE0E8-14D4-4E24-956C-0F041DFC8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EF5A95-875C-432E-9F6C-8C164F2BF7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="582">
   <si>
     <t>CPF</t>
   </si>
@@ -1882,6 +1882,27 @@
   </si>
   <si>
     <t>HOST (IP) DO BANCO ORIGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT TOP 5 
+CAST(A.DATA_CAD AS DATE) AS DATA,
+'203' AS COD_CRM,
+A.COD_HIST_CLI AS ACIONAMENTO_ID,
+B.CODIGO_CLIENTE AS ID_KEY,
+C.COD_LOGIN AS ID_CRM_OPERADOR,
+C.LOGIN_LOG AS NOME_CRM_OPERADOR,
+D.COD_OCOR AS ID_AC,
+TITULO_OCOR AS NOME_AC,
+CAST('' AS BIGINT) AS ID_SUB_AC,
+A.CAMPO_CHAVE AS NOME_SUB_AC,
+A.DATA_CAD AS INICIO_CHAMADA,
+A.DATA_CAD AS FIM_CHAMADA,
+Cast(E.DDD_TEL as VARCHAR) + Cast(E.NR_TEL as VARCHAR) as TELEFONE
+FROM HISTORICOS_CLIENTES A WITH (NOLOCK)
+LEFT JOIN AUX_TIM_CYBER B WITH (NOLOCK) ON A.COD_PARC = B.COD_PARC
+LEFT JOIN LOGIN C WITH (NOLOCK) ON A.USUARIO_CAD = C.COD_LOGIN
+LEFT JOIN OCORRENCIAS_CLIENTES D WITH (NOLOCK) A.COD_OCOR = D.COD_OCOR
+LEFT JOIN PESSOAS_TELEFONES E WITH (NOLOCK) </t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2431,6 +2452,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8495,7 +8519,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
@@ -8508,7 +8532,7 @@
     <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.44140625" style="1" customWidth="1"/>
@@ -8581,6 +8605,9 @@
       <c r="J2" s="45"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
+      <c r="M2" s="49" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
@@ -8615,6 +8642,7 @@
       <c r="L3" s="31" t="s">
         <v>395</v>
       </c>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="33" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
@@ -8645,6 +8673,7 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
@@ -8675,6 +8704,7 @@
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
@@ -8705,6 +8735,7 @@
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
@@ -8735,6 +8766,7 @@
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
@@ -8769,6 +8801,7 @@
         <v>393</v>
       </c>
       <c r="L8" s="31"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -8801,6 +8834,7 @@
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A10" s="31" t="s">
@@ -8833,6 +8867,7 @@
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A11" s="31" t="s">
@@ -8865,6 +8900,7 @@
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
@@ -8897,6 +8933,7 @@
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
@@ -8929,6 +8966,7 @@
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
@@ -8961,6 +8999,7 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
@@ -8991,6 +9030,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
@@ -9025,8 +9065,9 @@
       <c r="L16" s="31" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
+      <c r="M16" s="55"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
@@ -9057,8 +9098,9 @@
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.2" customHeight="1" thickBot="1">
+      <c r="M17" s="55"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
@@ -9089,8 +9131,9 @@
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="1:12" ht="30.6" customHeight="1" thickBot="1">
+      <c r="M18" s="55"/>
+    </row>
+    <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -9123,8 +9166,9 @@
       <c r="L19" s="31" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="30.6" customHeight="1" thickBot="1">
+      <c r="M19" s="55"/>
+    </row>
+    <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A20" s="31" t="s">
         <v>312</v>
       </c>
@@ -9147,8 +9191,9 @@
       <c r="J20" s="45"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" ht="30.6" customHeight="1" thickBot="1">
+      <c r="M20" s="55"/>
+    </row>
+    <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A21" s="31" t="s">
         <v>578</v>
       </c>
@@ -9171,8 +9216,9 @@
       <c r="J21" s="45"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="M21" s="55"/>
+    </row>
+    <row r="22" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A22" s="31" t="s">
         <v>94</v>
       </c>
@@ -9195,8 +9241,9 @@
       <c r="J22" s="45"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="M22" s="55"/>
+    </row>
+    <row r="23" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>410</v>
       </c>
@@ -9219,9 +9266,11 @@
       <c r="J23" s="45"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
+      <c r="M23" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="M2:M23"/>
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="F2:J2"/>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EF5A95-875C-432E-9F6C-8C164F2BF7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B08A222-891B-4F0E-A461-518B80C744F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -1884,25 +1884,36 @@
     <t>HOST (IP) DO BANCO ORIGEM</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT TOP 5 
+    <t xml:space="preserve">SELECT top 5000
 CAST(A.DATA_CAD AS DATE) AS DATA,
 '203' AS COD_CRM,
 A.COD_HIST_CLI AS ACIONAMENTO_ID,
-B.CODIGO_CLIENTE AS ID_KEY,
+CAST(REPLACE(B.CODIGO_CLIENTE,'.','') AS bigint) AS ID_KEY,
 C.COD_LOGIN AS ID_CRM_OPERADOR,
 C.LOGIN_LOG AS NOME_CRM_OPERADOR,
 D.COD_OCOR AS ID_AC,
 TITULO_OCOR AS NOME_AC,
 CAST('' AS BIGINT) AS ID_SUB_AC,
-A.CAMPO_CHAVE AS NOME_SUB_AC,
+CASE 
+    WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) LIKE '%Recusa%'
+      THEN  TRIM(LEFT(SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI)), CHARINDEX(CASE 
+                WHEN CHARINDEX('-', SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) &gt; 0
+                  THEN '-'
+                ELSE ':'
+                END, SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) - 1))
+    WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) NOT LIKE '%Recusa%'
+      THEN ''
+    END AS  NOME_SUB_AC,
 A.DATA_CAD AS INICIO_CHAMADA,
 A.DATA_CAD AS FIM_CHAMADA,
 Cast(E.DDD_TEL as VARCHAR) + Cast(E.NR_TEL as VARCHAR) as TELEFONE
 FROM HISTORICOS_CLIENTES A WITH (NOLOCK)
 LEFT JOIN AUX_TIM_CYBER B WITH (NOLOCK) ON A.COD_PARC = B.COD_PARC
 LEFT JOIN LOGIN C WITH (NOLOCK) ON A.USUARIO_CAD = C.COD_LOGIN
-LEFT JOIN OCORRENCIAS_CLIENTES D WITH (NOLOCK) A.COD_OCOR = D.COD_OCOR
-LEFT JOIN PESSOAS_TELEFONES E WITH (NOLOCK) </t>
+LEFT JOIN OCORRENCIAS_CLIENTES D WITH (NOLOCK) ON A.COD_OCOR = D.COD_OCOR
+LEFT JOIN v_devedores F WITH (NOLOCK) ON A.COD_DEV = F.COD_DEV
+LEFT JOIN PESSOAS_TELEFONES E WITH (NOLOCK) ON F.COD_PES = E.COD_PES
+</t>
   </si>
 </sst>
 </file>
@@ -2418,6 +2429,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2436,9 +2453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2452,9 +2466,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2946,13 +2957,13 @@
       <c r="E2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
@@ -3338,13 +3349,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
@@ -3362,13 +3373,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
       <c r="L17"/>
     </row>
   </sheetData>
@@ -3462,16 +3473,16 @@
       <c r="E2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="54" t="s">
         <v>506</v>
       </c>
     </row>
@@ -3506,7 +3517,7 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
@@ -3533,7 +3544,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="53"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
@@ -3560,7 +3571,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
@@ -3587,7 +3598,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
@@ -3614,7 +3625,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
@@ -3649,7 +3660,7 @@
         <v>393</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -3684,7 +3695,7 @@
         <v>503</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A10" s="42" t="s">
@@ -3719,7 +3730,7 @@
         <v>505</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="53"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A11" s="31" t="s">
@@ -3754,7 +3765,7 @@
         <v>490</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
@@ -3789,7 +3800,7 @@
         <v>490</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="53"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
@@ -3822,7 +3833,7 @@
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="53"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
@@ -3857,7 +3868,7 @@
         <v>486</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
@@ -3890,7 +3901,7 @@
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="53"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
@@ -3906,16 +3917,16 @@
         <v>30</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="53"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -3931,16 +3942,16 @@
         <v>19</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3957,7 +3968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D33" sqref="D32:D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -3969,7 +3982,7 @@
     <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -4042,14 +4055,14 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="M2" s="48" t="s">
         <v>577</v>
       </c>
     </row>
@@ -4078,7 +4091,7 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -4105,7 +4118,7 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="54"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -4132,7 +4145,7 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
@@ -4159,7 +4172,7 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -4192,7 +4205,7 @@
       <c r="K7" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="M7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
@@ -4219,7 +4232,7 @@
       <c r="H8" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M8" s="54"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
@@ -4249,7 +4262,7 @@
       <c r="J9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
@@ -4279,7 +4292,7 @@
       <c r="J10" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -4309,7 +4322,7 @@
       <c r="J11" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -4333,7 +4346,7 @@
       <c r="H12" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M12" s="54"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
@@ -4363,7 +4376,7 @@
       <c r="J13" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="M13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
@@ -4393,7 +4406,7 @@
       <c r="J14" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -4423,7 +4436,7 @@
       <c r="J15" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -4449,7 +4462,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="M16" s="54"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -4475,7 +4488,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="M17" s="54"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
@@ -4505,7 +4518,7 @@
       <c r="J18" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="M18" s="54"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
@@ -4535,7 +4548,7 @@
       <c r="J19" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="M19" s="54"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
@@ -4561,7 +4574,7 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="M20" s="54"/>
+      <c r="M20" s="55"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
@@ -4587,7 +4600,7 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="M21" s="54"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
@@ -4611,7 +4624,7 @@
       <c r="H22" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M22" s="54"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
@@ -4641,7 +4654,7 @@
       <c r="J23" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="M23" s="54"/>
+      <c r="M23" s="55"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
@@ -4665,7 +4678,7 @@
       <c r="H24" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M24" s="54"/>
+      <c r="M24" s="55"/>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -4689,7 +4702,7 @@
       <c r="H25" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M25" s="54"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
@@ -4713,7 +4726,7 @@
       <c r="H26" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M26" s="54"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
@@ -4737,7 +4750,7 @@
       <c r="H27" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M27" s="54"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
@@ -4767,7 +4780,7 @@
       <c r="J28" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="55"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
@@ -4791,7 +4804,7 @@
       <c r="H29" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M29" s="54"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
@@ -4815,7 +4828,7 @@
       <c r="H30" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M30" s="54"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
@@ -4845,7 +4858,7 @@
       <c r="J31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="M31" s="54"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
@@ -4869,7 +4882,7 @@
       <c r="H32" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M32" s="54"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
@@ -4899,7 +4912,7 @@
       <c r="J33" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="M33" s="54"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="A34" s="1" t="s">
@@ -4923,7 +4936,7 @@
       <c r="H34" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M34" s="54"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -4947,7 +4960,7 @@
       <c r="H35" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M35" s="54"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
@@ -4977,7 +4990,7 @@
       <c r="J36" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="M36" s="54"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1">
       <c r="A37" s="1" t="s">
@@ -5007,7 +5020,7 @@
       <c r="J37" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="M37" s="54"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
@@ -5031,7 +5044,7 @@
       <c r="H38" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M38" s="54"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
@@ -5055,7 +5068,7 @@
       <c r="H39" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M39" s="54"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
@@ -5079,7 +5092,7 @@
       <c r="H40" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M40" s="54"/>
+      <c r="M40" s="55"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1">
       <c r="A41" s="1" t="s">
@@ -5103,7 +5116,7 @@
       <c r="H41" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M41" s="54"/>
+      <c r="M41" s="55"/>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
@@ -5127,7 +5140,7 @@
       <c r="H42" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M42" s="54"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
@@ -5142,14 +5155,14 @@
       <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="M43" s="54"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="M43" s="55"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
@@ -5164,14 +5177,14 @@
       <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="M44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="M44" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8519,7 +8532,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
@@ -8596,16 +8609,16 @@
       <c r="E2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="43" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8642,7 +8655,7 @@
       <c r="L3" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="33" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
@@ -8673,7 +8686,7 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="55"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
@@ -8704,7 +8717,7 @@
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="55"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
@@ -8735,7 +8748,7 @@
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
@@ -8766,7 +8779,7 @@
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="55"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
@@ -8801,7 +8814,7 @@
         <v>393</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="55"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -8834,7 +8847,7 @@
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="55"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A10" s="31" t="s">
@@ -8867,7 +8880,7 @@
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="55"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A11" s="31" t="s">
@@ -8900,7 +8913,7 @@
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="55"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
@@ -8933,7 +8946,7 @@
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="55"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
@@ -8966,7 +8979,7 @@
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="55"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
@@ -8999,7 +9012,7 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="55"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
@@ -9030,7 +9043,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="55"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
@@ -9065,7 +9078,7 @@
       <c r="L16" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="M16" s="55"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
@@ -9098,7 +9111,7 @@
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A18" s="31" t="s">
@@ -9131,7 +9144,7 @@
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-      <c r="M18" s="55"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A19" s="31" t="s">
@@ -9166,7 +9179,7 @@
       <c r="L19" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="M19" s="55"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A20" s="31" t="s">
@@ -9182,16 +9195,16 @@
         <v>20</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="55"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A21" s="31" t="s">
@@ -9207,16 +9220,16 @@
         <v>20</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="55"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A22" s="31" t="s">
@@ -9232,16 +9245,16 @@
         <v>30</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-      <c r="M22" s="55"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
@@ -9257,16 +9270,16 @@
         <v>19</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
-      <c r="M23" s="55"/>
+      <c r="M23" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9364,16 +9377,16 @@
       <c r="E2" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="48" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9408,7 +9421,7 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="46"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
@@ -9441,7 +9454,7 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="46"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
@@ -9468,7 +9481,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="46"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
@@ -9495,7 +9508,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="46"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
@@ -9522,7 +9535,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="46"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
@@ -9549,7 +9562,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="46"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -9584,7 +9597,7 @@
         <v>393</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="46"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A10" s="42" t="s">
@@ -9619,7 +9632,7 @@
         <v>465</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="46"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -9652,7 +9665,7 @@
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="46"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
@@ -9687,7 +9700,7 @@
         <v>469</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="46"/>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
@@ -9720,7 +9733,7 @@
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="46"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="1:13" ht="28.8" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
@@ -9757,7 +9770,7 @@
         <v>466</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="46"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:13" ht="31.2" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
@@ -9785,7 +9798,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="46"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
@@ -9816,7 +9829,7 @@
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="46"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
@@ -9832,16 +9845,16 @@
         <v>30</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="46"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A18" s="31" t="s">
@@ -9857,14 +9870,14 @@
         <v>19</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="M18" s="46"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="M18" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9960,16 +9973,16 @@
       <c r="E2" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="51" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10004,7 +10017,7 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="51"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
@@ -10037,7 +10050,7 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
@@ -10064,7 +10077,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
@@ -10091,7 +10104,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
@@ -10118,7 +10131,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="51"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
@@ -10145,7 +10158,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -10180,7 +10193,7 @@
         <v>393</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A10" s="42" t="s">
@@ -10215,7 +10228,7 @@
         <v>465</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -10250,7 +10263,7 @@
       <c r="L11" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="M11" s="51"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10287,7 +10300,7 @@
         <v>476</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
@@ -10324,7 +10337,7 @@
         <v>475</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="51"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
@@ -10357,7 +10370,7 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
@@ -10373,16 +10386,16 @@
         <v>30</v>
       </c>
       <c r="E15" s="31"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -10398,16 +10411,16 @@
         <v>19</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="51"/>
+      <c r="M16" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10910,17 +10923,17 @@
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">
@@ -11554,17 +11567,17 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="15" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B08A222-891B-4F0E-A461-518B80C744F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D13DAA-B8F1-4786-9980-B35BCFB574C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="4" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ACORDOS!$H$1:$H$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EMAIL!$H$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EMAIL!$H$1:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PAGAMENTOS!$H$1:$H$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TELEFONE!$H$1:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TELEFONE!$H$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="582">
   <si>
     <t>CPF</t>
   </si>
@@ -1540,20 +1540,6 @@
   </si>
   <si>
     <t>V_FUNCIONARIOS</t>
-  </si>
-  <si>
-    <t>SELECT TOP 1000
-A.DATA_CAD AS DATA_INCLUSAO,
-A.DATA_UP AS DATA_ALTERACAO,
-'230' AS 'COD_CRM',
-B.CPFCGC_PES AS ID_KEY,
-CAST(A.DDD_TEL AS VARCHAR) + CAST(A.NR_TEL AS varchar) AS TELEFONE,
-C.NOM_TIP AS TIPO_FONE,
-D.DES_STAT AS STATUS
-FROM PESSOAS_TELEFONES A WITH(NOLOCK)
-LEFT JOIN PESSOAS B WITH (NOLOCK) ON A.COD_PES = B.COD_PES
-LEFT JOIN TIPOS_TELEFONES C WITH (NOLOCK) ON A.TIPO_TEL = C.COD_TIP
-LEFT JOIN TELEFONES_STATUS D WITH (NOLOCK) ON A.STATUS_TEL = D.COD_STAT</t>
   </si>
   <si>
     <t>EVENTO_ID</t>
@@ -1884,36 +1870,56 @@
     <t>HOST (IP) DO BANCO ORIGEM</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT top 5000
-CAST(A.DATA_CAD AS DATE) AS DATA,
-'203' AS COD_CRM,
-A.COD_HIST_CLI AS ACIONAMENTO_ID,
-CAST(REPLACE(B.CODIGO_CLIENTE,'.','') AS bigint) AS ID_KEY,
-C.COD_LOGIN AS ID_CRM_OPERADOR,
-C.LOGIN_LOG AS NOME_CRM_OPERADOR,
-D.COD_OCOR AS ID_AC,
-TITULO_OCOR AS NOME_AC,
-CAST('' AS BIGINT) AS ID_SUB_AC,
-CASE 
-    WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) LIKE '%Recusa%'
-      THEN  TRIM(LEFT(SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI)), CHARINDEX(CASE 
-                WHEN CHARINDEX('-', SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) &gt; 0
-                  THEN '-'
-                ELSE ':'
-                END, SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) - 1))
-    WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) NOT LIKE '%Recusa%'
-      THEN ''
-    END AS  NOME_SUB_AC,
-A.DATA_CAD AS INICIO_CHAMADA,
-A.DATA_CAD AS FIM_CHAMADA,
-Cast(E.DDD_TEL as VARCHAR) + Cast(E.NR_TEL as VARCHAR) as TELEFONE
+    <t>SELECT 
+    CAST(A.DATA_CAD AS DATE) AS DATA,
+    CAST('203' AS INT) AS COD_CRM,
+    CAST(A.COD_HIST_CLI AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(REPLACE(B.CODIGO_CLIENTE, '.', '') AS BIGINT) AS ID_KEY,
+    CAST(C.COD_LOGIN AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(C.LOGIN_LOG AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(D.COD_OCOR AS BIGINT) AS ID_AC,
+    CAST(D.TITULO_OCOR AS NVARCHAR(200)) AS NOME_AC,
+    CAST('' AS BIGINT) AS ID_SUB_AC,
+    CAST(CASE 
+        WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) LIKE '%Recusa%'
+        THEN TRIM(LEFT(SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI)), CHARINDEX(CASE 
+            WHEN CHARINDEX('-', SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) &gt; 0
+            THEN '-' ELSE ':' END, SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) - 1))
+        WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) NOT LIKE '%Recusa%'
+        THEN ''
+    END AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA_CAD AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_CAD AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(Cast(E.DDD_TEL as VARCHAR) + Cast(E.NR_TEL as VARCHAR) AS NVARCHAR(20)) AS TELEFONE,
+    CAST('52.179.19.141' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('MF_cobsystems' AS VARCHAR(20)) AS BANCO,
+    CAST('VCOM' AS VARCHAR(30)) AS ORIGEM
 FROM HISTORICOS_CLIENTES A WITH (NOLOCK)
 LEFT JOIN AUX_TIM_CYBER B WITH (NOLOCK) ON A.COD_PARC = B.COD_PARC
 LEFT JOIN LOGIN C WITH (NOLOCK) ON A.USUARIO_CAD = C.COD_LOGIN
 LEFT JOIN OCORRENCIAS_CLIENTES D WITH (NOLOCK) ON A.COD_OCOR = D.COD_OCOR
 LEFT JOIN v_devedores F WITH (NOLOCK) ON A.COD_DEV = F.COD_DEV
-LEFT JOIN PESSOAS_TELEFONES E WITH (NOLOCK) ON F.COD_PES = E.COD_PES
-</t>
+LEFT JOIN PESSOAS_TELEFONES E WITH (NOLOCK) ON F.COD_PES = E.COD_PES;</t>
+  </si>
+  <si>
+    <t>SELECT TOP 10
+    CAST(A.DATA_CAD AS DATETIME2(7)) AS DATA_INCLUSAO, 
+    CAST(A.DATA_UP AS DATETIME2(7)) AS DATA_ALTERACAO, 
+    CAST('230' AS INT) AS COD_CRM, 
+    CAST(B.CPFCGC_PES AS BIGINT) AS ID_KEY, 
+    CAST(CAST(A.DDD_TEL AS VARCHAR(3)) + CAST(A.NR_TEL AS VARCHAR(17)) AS NVARCHAR(20)) AS TELEFONE, 
+    CAST(C.NOM_TIP AS NVARCHAR(30)) AS TIPO_FONE, 
+    CAST('' AS NVARCHAR(30)) AS ORIGEM_FONE,
+    CAST(D.DES_STAT AS NVARCHAR(30)) AS STATUS, 
+    CAST(0 AS INT) AS PERCENTUAL_LOCALIZACAO, 
+    CAST(0 AS SMALLINT) AS WHATSAPP, 
+    CAST('52.179.19.141' AS VARCHAR(20)) AS INSTANCIA, 
+    CAST('MF_cobsystems' AS VARCHAR(20)) AS BANCO, 
+    CAST('VCOM' AS NVARCHAR(30)) AS ORIGEM
+FROM PESSOAS_TELEFONES A WITH(NOLOCK)
+LEFT JOIN PESSOAS B WITH (NOLOCK) ON A.COD_PES = B.COD_PES
+LEFT JOIN TIPOS_TELEFONES C WITH (NOLOCK) ON A.TIPO_TEL = C.COD_TIP
+LEFT JOIN TELEFONES_STATUS D WITH (NOLOCK) ON A.STATUS_TEL = D.COD_STAT</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2273,26 +2279,6 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2301,7 +2287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2429,10 +2415,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2447,26 +2433,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2943,10 +2926,10 @@
     </row>
     <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>405</v>
@@ -2972,7 +2955,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>407</v>
@@ -3459,10 +3442,10 @@
     </row>
     <row r="2" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>405</v>
@@ -3482,8 +3465,8 @@
       <c r="J2" s="47"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="54" t="s">
-        <v>506</v>
+      <c r="M2" s="52" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
@@ -3517,7 +3500,7 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="54"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
@@ -3544,7 +3527,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="54"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
@@ -3571,7 +3554,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="54"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
@@ -3598,7 +3581,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="54"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
@@ -3625,7 +3608,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="54"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
@@ -3660,7 +3643,7 @@
         <v>393</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="54"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -3686,16 +3669,16 @@
         <v>380</v>
       </c>
       <c r="I9" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>503</v>
-      </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="54"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A10" s="42" t="s">
@@ -3721,16 +3704,16 @@
         <v>380</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>463</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="54"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A11" s="31" t="s">
@@ -3765,7 +3748,7 @@
         <v>490</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="54"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
@@ -3800,7 +3783,7 @@
         <v>490</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="54"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
@@ -3833,7 +3816,7 @@
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="54"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
@@ -3868,7 +3851,7 @@
         <v>486</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="54"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
@@ -3901,7 +3884,7 @@
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="54"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
@@ -3926,7 +3909,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="54"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -3951,7 +3934,7 @@
       <c r="J17" s="47"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="54"/>
+      <c r="M17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4047,7 +4030,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>299</v>
@@ -4055,15 +4038,15 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>508</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="53" t="s">
+        <v>507</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
       <c r="M2" s="48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4091,7 +4074,7 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -4118,7 +4101,7 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -4145,7 +4128,7 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="55"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
@@ -4172,14 +4155,14 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>404</v>
@@ -4205,17 +4188,17 @@
       <c r="K7" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -4232,7 +4215,7 @@
       <c r="H8" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
@@ -4242,7 +4225,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -4257,12 +4240,12 @@
         <v>380</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M9" s="55"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
@@ -4292,7 +4275,7 @@
       <c r="J10" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -4317,19 +4300,19 @@
         <v>380</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="M11" s="55"/>
+        <v>571</v>
+      </c>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>405</v>
@@ -4346,17 +4329,17 @@
       <c r="H12" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M12" s="55"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D13" s="1">
         <v>55</v>
@@ -4371,22 +4354,22 @@
         <v>380</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="M13" s="55"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D14" s="1">
         <v>65</v>
@@ -4404,9 +4387,9 @@
         <v>382</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M14" s="55"/>
+        <v>563</v>
+      </c>
+      <c r="M14" s="53"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -4416,7 +4399,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
@@ -4434,9 +4417,9 @@
         <v>460</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M15" s="55"/>
+        <v>573</v>
+      </c>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -4446,7 +4429,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -4462,7 +4445,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="M16" s="55"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -4472,7 +4455,7 @@
         <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
@@ -4488,17 +4471,17 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="53"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D18" s="1">
         <v>150</v>
@@ -4516,19 +4499,19 @@
         <v>460</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="M18" s="55"/>
+        <v>574</v>
+      </c>
+      <c r="M18" s="53"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -4546,19 +4529,19 @@
         <v>460</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="M19" s="55"/>
+        <v>575</v>
+      </c>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4574,14 +4557,14 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="M20" s="55"/>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>407</v>
@@ -4600,17 +4583,17 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="M21" s="55"/>
+      <c r="M21" s="53"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D22" s="1">
         <v>25</v>
@@ -4624,17 +4607,17 @@
       <c r="H22" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M22" s="55"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D23" s="1">
         <v>200</v>
@@ -4652,16 +4635,16 @@
         <v>382</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="M23" s="55"/>
+        <v>564</v>
+      </c>
+      <c r="M23" s="53"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>404</v>
@@ -4678,14 +4661,14 @@
       <c r="H24" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M24" s="55"/>
+      <c r="M24" s="53"/>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>404</v>
@@ -4702,17 +4685,17 @@
       <c r="H25" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M25" s="55"/>
+      <c r="M25" s="53"/>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
@@ -4726,17 +4709,17 @@
       <c r="H26" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M26" s="55"/>
+      <c r="M26" s="53"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D27" s="1">
         <v>20</v>
@@ -4750,20 +4733,20 @@
       <c r="H27" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M27" s="55"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>451</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>378</v>
@@ -4775,25 +4758,25 @@
         <v>380</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="M28" s="55"/>
+      <c r="M28" s="53"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>451</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>378</v>
@@ -4804,17 +4787,17 @@
       <c r="H29" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M29" s="55"/>
+      <c r="M29" s="53"/>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -4828,14 +4811,14 @@
       <c r="H30" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M30" s="55"/>
+      <c r="M30" s="53"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>407</v>
@@ -4853,12 +4836,12 @@
         <v>380</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="M31" s="55"/>
+        <v>568</v>
+      </c>
+      <c r="M31" s="53"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
@@ -4882,14 +4865,14 @@
       <c r="H32" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M32" s="55"/>
+      <c r="M32" s="53"/>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>407</v>
@@ -4907,22 +4890,22 @@
         <v>380</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="M33" s="55"/>
+        <v>569</v>
+      </c>
+      <c r="M33" s="53"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="A34" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D34" s="1">
         <v>720</v>
@@ -4936,14 +4919,14 @@
       <c r="H34" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M34" s="55"/>
+      <c r="M34" s="53"/>
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>407</v>
@@ -4960,14 +4943,14 @@
       <c r="H35" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M35" s="55"/>
+      <c r="M35" s="53"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>407</v>
@@ -4988,16 +4971,16 @@
         <v>382</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M36" s="55"/>
+        <v>572</v>
+      </c>
+      <c r="M36" s="53"/>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>407</v>
@@ -5015,22 +4998,22 @@
         <v>380</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="M37" s="55"/>
+        <v>569</v>
+      </c>
+      <c r="M37" s="53"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D38" s="1">
         <v>20</v>
@@ -5044,17 +5027,17 @@
       <c r="H38" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M38" s="55"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D39" s="1">
         <v>20</v>
@@ -5068,17 +5051,17 @@
       <c r="H39" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M39" s="55"/>
+      <c r="M39" s="53"/>
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D40" s="1">
         <v>75</v>
@@ -5092,17 +5075,17 @@
       <c r="H40" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M40" s="55"/>
+      <c r="M40" s="53"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1">
       <c r="A41" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5116,17 +5099,17 @@
       <c r="H41" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M41" s="55"/>
+      <c r="M41" s="53"/>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D42" s="1">
         <v>55</v>
@@ -5140,7 +5123,7 @@
       <c r="H42" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M42" s="55"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
@@ -5155,14 +5138,14 @@
       <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="M43" s="55"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
@@ -5177,14 +5160,14 @@
       <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="M44" s="55"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="M44" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8531,8 +8514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
@@ -8549,7 +8532,8 @@
     <col min="10" max="10" width="35" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.44140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="48.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
@@ -8595,10 +8579,10 @@
     </row>
     <row r="2" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>493</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>494</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>405</v>
@@ -8619,7 +8603,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
@@ -9186,10 +9170,10 @@
         <v>312</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D20" s="31">
         <v>20</v>
@@ -9208,13 +9192,13 @@
     </row>
     <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A21" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>579</v>
-      </c>
       <c r="C21" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D21" s="31">
         <v>20</v>
@@ -9239,7 +9223,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>403</v>
+        <v>512</v>
       </c>
       <c r="D22" s="31">
         <v>30</v>
@@ -9297,10 +9281,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.8" customHeight="1"/>
@@ -9387,7 +9371,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="48" t="s">
-        <v>492</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
@@ -9456,7 +9440,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -9483,7 +9467,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -9510,7 +9494,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -9537,7 +9521,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -9740,7 +9724,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>403</v>
@@ -9833,56 +9817,108 @@
     </row>
     <row r="17" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>400</v>
+        <v>579</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>403</v>
+        <v>512</v>
       </c>
       <c r="D17" s="31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="F17" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
       <c r="A18" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D18" s="31">
+        <v>20</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A19" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" s="31">
+        <v>30</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" s="48"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A20" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B20" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C20" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D20" s="31">
         <v>19</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="43" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="M20" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M2:M18"/>
+  <mergeCells count="6">
+    <mergeCell ref="M2:M20"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
   </mergeCells>
@@ -9892,16 +9928,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:I10"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
@@ -9910,9 +9946,9 @@
     <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="45.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -9982,8 +10018,8 @@
       <c r="J2" s="47"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="51" t="s">
-        <v>500</v>
+      <c r="M2" s="49" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
@@ -10017,14 +10053,14 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
         <v>424</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>407</v>
@@ -10050,9 +10086,9 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -10077,9 +10113,9 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -10104,9 +10140,9 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -10131,9 +10167,9 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="52"/>
-    </row>
-    <row r="8" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -10158,7 +10194,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="52"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -10193,7 +10229,7 @@
         <v>393</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="52"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A10" s="42" t="s">
@@ -10228,7 +10264,7 @@
         <v>465</v>
       </c>
       <c r="L10" s="31"/>
-      <c r="M10" s="52"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -10263,7 +10299,7 @@
       <c r="L11" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="M11" s="52"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10300,7 +10336,7 @@
         <v>476</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="52"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
@@ -10337,7 +10373,7 @@
         <v>475</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="52"/>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
@@ -10370,24 +10406,24 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="52"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>400</v>
+        <v>579</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>403</v>
+        <v>512</v>
       </c>
       <c r="D15" s="31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
@@ -10395,24 +10431,24 @@
       <c r="J15" s="47"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="52"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>411</v>
+      <c r="A16" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>578</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="D16" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="45" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
@@ -10420,14 +10456,66 @@
       <c r="J16" s="47"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="52"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A17" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D17" s="31">
+        <v>30</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="31">
+        <v>19</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="M2:M18"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="M2:M16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10923,17 +11011,17 @@
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">
@@ -11567,17 +11655,17 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="15" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D13DAA-B8F1-4786-9980-B35BCFB574C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B8069-9E5F-470D-9C30-FC17D8B75717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="4" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -1870,38 +1870,6 @@
     <t>HOST (IP) DO BANCO ORIGEM</t>
   </si>
   <si>
-    <t>SELECT 
-    CAST(A.DATA_CAD AS DATE) AS DATA,
-    CAST('203' AS INT) AS COD_CRM,
-    CAST(A.COD_HIST_CLI AS BIGINT) AS ACIONAMENTO_ID,
-    CAST(REPLACE(B.CODIGO_CLIENTE, '.', '') AS BIGINT) AS ID_KEY,
-    CAST(C.COD_LOGIN AS BIGINT) AS ID_CRM_OPERADOR,
-    CAST(C.LOGIN_LOG AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
-    CAST(D.COD_OCOR AS BIGINT) AS ID_AC,
-    CAST(D.TITULO_OCOR AS NVARCHAR(200)) AS NOME_AC,
-    CAST('' AS BIGINT) AS ID_SUB_AC,
-    CAST(CASE 
-        WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) LIKE '%Recusa%'
-        THEN TRIM(LEFT(SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI)), CHARINDEX(CASE 
-            WHEN CHARINDEX('-', SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) &gt; 0
-            THEN '-' ELSE ':' END, SUBSTRING(A.COMPLEMENTO_HIST_CLI, CHARINDEX('-', A.COMPLEMENTO_HIST_CLI) + 2, LEN(A.COMPLEMENTO_HIST_CLI))) - 1))
-        WHEN SUBSTRING(A.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', A.COMPLEMENTO_HIST_CLI)) NOT LIKE '%Recusa%'
-        THEN ''
-    END AS NVARCHAR(200)) AS NOME_SUB_AC,
-    CAST(A.DATA_CAD AS DATETIME2(7)) AS INICIO_CHAMADA,
-    CAST(A.DATA_CAD AS DATETIME2(7)) AS FIM_CHAMADA,
-    CAST(Cast(E.DDD_TEL as VARCHAR) + Cast(E.NR_TEL as VARCHAR) AS NVARCHAR(20)) AS TELEFONE,
-    CAST('52.179.19.141' AS VARCHAR(20)) AS INSTANCIA,
-    CAST('MF_cobsystems' AS VARCHAR(20)) AS BANCO,
-    CAST('VCOM' AS VARCHAR(30)) AS ORIGEM
-FROM HISTORICOS_CLIENTES A WITH (NOLOCK)
-LEFT JOIN AUX_TIM_CYBER B WITH (NOLOCK) ON A.COD_PARC = B.COD_PARC
-LEFT JOIN LOGIN C WITH (NOLOCK) ON A.USUARIO_CAD = C.COD_LOGIN
-LEFT JOIN OCORRENCIAS_CLIENTES D WITH (NOLOCK) ON A.COD_OCOR = D.COD_OCOR
-LEFT JOIN v_devedores F WITH (NOLOCK) ON A.COD_DEV = F.COD_DEV
-LEFT JOIN PESSOAS_TELEFONES E WITH (NOLOCK) ON F.COD_PES = E.COD_PES;</t>
-  </si>
-  <si>
     <t>SELECT TOP 10
     CAST(A.DATA_CAD AS DATETIME2(7)) AS DATA_INCLUSAO, 
     CAST(A.DATA_UP AS DATETIME2(7)) AS DATA_ALTERACAO, 
@@ -1920,6 +1888,61 @@
 LEFT JOIN PESSOAS B WITH (NOLOCK) ON A.COD_PES = B.COD_PES
 LEFT JOIN TIPOS_TELEFONES C WITH (NOLOCK) ON A.TIPO_TEL = C.COD_TIP
 LEFT JOIN TELEFONES_STATUS D WITH (NOLOCK) ON A.STATUS_TEL = D.COD_STAT</t>
+  </si>
+  <si>
+    <t>SELECT 
+  CAST(HC.DATA_CAD AS DATE) AS DATA,
+  CAST('203' AS INT) AS COD_CRM,
+  CAST(HC.COD_HIST_CLI AS bigint) AS ACIONAMENTO_ID,
+  CAST(REPLACE(A.CODIGO_CLIENTE, '.', '') AS BIGINT) AS ID_KEY,
+  CAST(L.COD_LOGIN AS BIGINT) AS ID_CRM_OPERADOR,
+  CAST(L.LOGIN_LOG AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+  CAST(O.COD_OCOR AS BIGINT) AS ID_AC,
+  CAST(O.TITULO_OCOR AS NVARCHAR(200)) AS NOME_AC,
+  CAST('' AS BIGINT) AS ID_SUB_AC,
+    CAST(CASE 
+        WHEN SUBSTRING(HC.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', HC.COMPLEMENTO_HIST_CLI)) LIKE '%Recusa%'
+        THEN TRIM(LEFT(SUBSTRING(HC.COMPLEMENTO_HIST_CLI, CHARINDEX('-', HC.COMPLEMENTO_HIST_CLI) + 2, LEN(HC.COMPLEMENTO_HIST_CLI)), CHARINDEX(CASE 
+            WHEN CHARINDEX('-', SUBSTRING(HC.COMPLEMENTO_HIST_CLI, CHARINDEX('-', HC.COMPLEMENTO_HIST_CLI) + 2, LEN(HC.COMPLEMENTO_HIST_CLI))) &gt; 0
+            THEN '-' ELSE ':' END, SUBSTRING(HC.COMPLEMENTO_HIST_CLI, CHARINDEX('-', HC.COMPLEMENTO_HIST_CLI) + 2, LEN(HC.COMPLEMENTO_HIST_CLI))) - 1))
+        WHEN SUBSTRING(HC.COMPLEMENTO_HIST_CLI, 1, CHARINDEX(': ', HC.COMPLEMENTO_HIST_CLI)) NOT LIKE '%Recusa%'
+        THEN ''
+    END AS NVARCHAR(200)) AS NOME_SUB_AC,
+ CAST(HC.DATA_CAD AS DATETIME2(7)) AS INICIO_CHAMADA,
+ CAST(HC.DATA_CAD AS DATETIME2(7)) AS FIM_CHAMADA,
+ CAST(Cast(PT.DDD_TEL as VARCHAR) + Cast(PT.NR_TEL as VARCHAR) AS NVARCHAR(20)) AS TELEFONE,
+ CAST('52.179.19.141' AS VARCHAR(20)) AS INSTANCIA,
+ CAST('MF_cobsystems' AS VARCHAR(20)) AS BANCO,
+ CAST('VCOM' AS NVARCHAR(30)) AS ORIGEM
+from HISTORICOS_CLIENTES HC With(NoLock) 
+  inner join HISTORICOS_CLIENTES_TITULOS HCT With(NoLock) on HC.COD_HIST_CLI = HCT.COD_HIST_CLI 
+  inner join OCORRENCIAS_CLIENTES O With(NoLock) on O.COD_OCOR = HC.COD_OCOR and O.COD_TIPO_OCORRENCIA is not NULL 
+  inner join TITULOS T With(NoLock) on T.COD_TIT = HCT.COD_TIT 
+  inner join v_devedores V With(NoLock) on HC.COD_DEV = V.COD_DEV 
+  left join PESSOAS_TELEFONES PT With(NoLock) on PT.COD_FONE = HC.COD_FONE 
+  left join _SOMA_PARC SP With(NoLock) on SP.COD_TIT = T.COD_TIT 
+  inner join LOGIN L With(NoLock) on L.COD_LOGIN = HC.USUARIO_CAD 
+  inner join 
+  (
+  select P.COD_TIT,
+    Max(A.CUSTOMER_ID) as CUSTOMER_ID,
+    Max(A.CRITERIO_CYBER) as CRITERIO_CYBER,
+    Max(A.CODIGO_CLIENTE) as CODIGO_CLIENTE,
+    Max(A.DATA_ATIVACAO_CLIENTE) as DATA_ATIVACAO_CLIENTE 
+  from PARCELAS P With(NoLock) 
+    inner join AUX_TIM_CYBER A With(NoLock) on A.COD_PARC = P.COD_PARC 
+  group by P.COD_TIT
+  ) A on A.COD_TIT = T.COD_TIT 
+  inner join 
+  (
+  select H.COD_TIT,
+    Max(H.COD_IMP) as COD_IMP 
+  from IMPORTACAO_HISTORICO H With(NoLock) 
+  group by H.COD_TIT
+  ) I on I.COD_TIT = T.COD_TIT 
+  left join BOLETOS_EM BE With(NoLock) on BE.Cod_BEm = HC.COD_BEM 
+  inner join IMPORTACAO IM With(NoLock) on I.COD_IMP = IM.COD_IMP 
+where Cast(HC.DATA_CAD as DATE) = CAST(GETDATE() AS date)</t>
   </si>
 </sst>
 </file>
@@ -2287,7 +2310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2447,9 +2470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3952,7 +3972,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D33" sqref="D32:D33"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8514,8 +8534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
@@ -8603,7 +8623,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="43" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
@@ -8641,7 +8661,7 @@
       </c>
       <c r="M3" s="44"/>
     </row>
-    <row r="4" spans="1:13" ht="33" hidden="1" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8672,7 +8692,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8703,7 +8723,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -8734,7 +8754,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" ht="19.2" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -8867,7 +8887,7 @@
       <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -9283,7 +9303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -9371,7 +9391,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
@@ -9836,8 +9856,8 @@
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="47"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
@@ -9861,8 +9881,8 @@
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="48"/>
     </row>
     <row r="19" spans="1:13" ht="19.8" customHeight="1" thickBot="1">

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B8069-9E5F-470D-9C30-FC17D8B75717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7529F52D-CDAB-464B-914B-0992A6F14A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="4" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ACORDOS!$H$1:$H$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EMAIL!$H$1:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PAGAMENTOS!$H$1:$H$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TELEFONE!$H$1:$H$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TELEFONE!$H$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="584">
   <si>
     <t>CPF</t>
   </si>
@@ -1868,26 +1868,6 @@
   </si>
   <si>
     <t>HOST (IP) DO BANCO ORIGEM</t>
-  </si>
-  <si>
-    <t>SELECT TOP 10
-    CAST(A.DATA_CAD AS DATETIME2(7)) AS DATA_INCLUSAO, 
-    CAST(A.DATA_UP AS DATETIME2(7)) AS DATA_ALTERACAO, 
-    CAST('230' AS INT) AS COD_CRM, 
-    CAST(B.CPFCGC_PES AS BIGINT) AS ID_KEY, 
-    CAST(CAST(A.DDD_TEL AS VARCHAR(3)) + CAST(A.NR_TEL AS VARCHAR(17)) AS NVARCHAR(20)) AS TELEFONE, 
-    CAST(C.NOM_TIP AS NVARCHAR(30)) AS TIPO_FONE, 
-    CAST('' AS NVARCHAR(30)) AS ORIGEM_FONE,
-    CAST(D.DES_STAT AS NVARCHAR(30)) AS STATUS, 
-    CAST(0 AS INT) AS PERCENTUAL_LOCALIZACAO, 
-    CAST(0 AS SMALLINT) AS WHATSAPP, 
-    CAST('52.179.19.141' AS VARCHAR(20)) AS INSTANCIA, 
-    CAST('MF_cobsystems' AS VARCHAR(20)) AS BANCO, 
-    CAST('VCOM' AS NVARCHAR(30)) AS ORIGEM
-FROM PESSOAS_TELEFONES A WITH(NOLOCK)
-LEFT JOIN PESSOAS B WITH (NOLOCK) ON A.COD_PES = B.COD_PES
-LEFT JOIN TIPOS_TELEFONES C WITH (NOLOCK) ON A.TIPO_TEL = C.COD_TIP
-LEFT JOIN TELEFONES_STATUS D WITH (NOLOCK) ON A.STATUS_TEL = D.COD_STAT</t>
   </si>
   <si>
     <t>SELECT 
@@ -1944,12 +1924,39 @@
   inner join IMPORTACAO IM With(NoLock) on I.COD_IMP = IM.COD_IMP 
 where Cast(HC.DATA_CAD as DATE) = CAST(GETDATE() AS date)</t>
   </si>
+  <si>
+    <t>SELECT TOP 10
+    CAST(A.DATA_CAD AS DATETIME2(7)) AS DATA_INCLUSAO, 
+    CAST(A.DATA_UP AS DATETIME2(7)) AS DATA_ALTERACAO, 
+    CAST('230' AS INT) AS COD_CRM, 
+    CAST(B.CPFCGC_PES AS BIGINT) AS CPF,
+    CAST(B.COD_PES AS BIGINT) AS ID_KEY, 
+    CAST(CAST(A.DDD_TEL AS VARCHAR(3)) + CAST(A.NR_TEL AS VARCHAR(17)) AS NVARCHAR(20)) AS TELEFONE, 
+    CAST(C.NOM_TIP AS NVARCHAR(30)) AS TIPO_FONE, 
+    CAST('' AS NVARCHAR(30)) AS ORIGEM_FONE,
+    CAST(D.DES_STAT AS NVARCHAR(30)) AS STATUS, 
+    CAST(0 AS INT) AS PERCENTUAL_LOCALIZACAO, 
+    CAST(0 AS SMALLINT) AS WHATSAPP, 
+    CAST('52.179.19.141' AS VARCHAR(20)) AS INSTANCIA, 
+    CAST('MF_cobsystems' AS VARCHAR(20)) AS BANCO, 
+    CAST('VCOM' AS VARCHAR(30)) AS ORIGEM
+FROM PESSOAS_TELEFONES A WITH(NOLOCK)
+LEFT JOIN PESSOAS B WITH (NOLOCK) ON A.COD_PES = B.COD_PES
+LEFT JOIN TIPOS_TELEFONES C WITH (NOLOCK) ON A.TIPO_TEL = C.COD_TIP
+LEFT JOIN TELEFONES_STATUS D WITH (NOLOCK) ON A.STATUS_TEL = D.COD_STAT</t>
+  </si>
+  <si>
+    <t>NUMERO DO CPF DO CLIENTE</t>
+  </si>
+  <si>
+    <t>COD_PES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2791,7 +2798,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2799,7 +2806,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2810,67 +2817,67 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2888,7 +2895,7 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -2903,7 +2910,7 @@
     <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -2970,7 +2977,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -2998,7 +3005,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3024,7 +3031,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3057,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -3076,7 +3083,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -3102,7 +3109,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -3136,7 +3143,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>92</v>
       </c>
@@ -3164,7 +3171,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -3198,7 +3205,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>445</v>
       </c>
@@ -3226,7 +3233,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
@@ -3254,7 +3261,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>40</v>
       </c>
@@ -3282,7 +3289,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>449</v>
       </c>
@@ -3310,7 +3317,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>95</v>
       </c>
@@ -3338,7 +3345,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>94</v>
       </c>
@@ -3362,7 +3369,7 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" ht="19.8" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>410</v>
       </c>
@@ -3403,7 +3410,7 @@
       <selection activeCell="B10" sqref="B10:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="23.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -3419,7 +3426,7 @@
     <col min="13" max="16384" width="13.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -3489,7 +3496,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -3522,7 +3529,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="52"/>
     </row>
-    <row r="4" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3549,7 +3556,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="52"/>
     </row>
-    <row r="5" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -3576,7 +3583,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="52"/>
     </row>
-    <row r="6" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -3603,7 +3610,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="52"/>
     </row>
-    <row r="7" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3637,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="52"/>
     </row>
-    <row r="8" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -3665,7 +3672,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="52"/>
     </row>
-    <row r="9" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>92</v>
       </c>
@@ -3700,7 +3707,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="52"/>
     </row>
-    <row r="10" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -3735,7 +3742,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="52"/>
     </row>
-    <row r="11" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>452</v>
       </c>
@@ -3770,7 +3777,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="52"/>
     </row>
-    <row r="12" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>47</v>
       </c>
@@ -3805,7 +3812,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="52"/>
     </row>
-    <row r="13" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>455</v>
       </c>
@@ -3838,7 +3845,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="52"/>
     </row>
-    <row r="14" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>457</v>
       </c>
@@ -3873,7 +3880,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>96</v>
       </c>
@@ -3906,7 +3913,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="52"/>
     </row>
-    <row r="16" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>94</v>
       </c>
@@ -3931,7 +3938,7 @@
       <c r="L16" s="31"/>
       <c r="M16" s="52"/>
     </row>
-    <row r="17" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>410</v>
       </c>
@@ -3975,7 +3982,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" hidden="1" customWidth="1"/>
@@ -4004,7 +4011,7 @@
     <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -4045,7 +4052,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4096,7 +4103,7 @@
       </c>
       <c r="M3" s="53"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4130,7 @@
       </c>
       <c r="M4" s="53"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -4150,7 +4157,7 @@
       </c>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4177,7 +4184,7 @@
       </c>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>508</v>
       </c>
@@ -4210,7 +4217,7 @@
       </c>
       <c r="M7" s="53"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>510</v>
       </c>
@@ -4237,7 +4244,7 @@
       </c>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4274,7 @@
       </c>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4297,7 +4304,7 @@
       </c>
       <c r="M10" s="53"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4334,7 @@
       </c>
       <c r="M11" s="53"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4351,7 +4358,7 @@
       </c>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>514</v>
       </c>
@@ -4381,7 +4388,7 @@
       </c>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>516</v>
       </c>
@@ -4411,7 +4418,7 @@
       </c>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4441,7 +4448,7 @@
       </c>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4467,7 +4474,7 @@
       <c r="J16" s="3"/>
       <c r="M16" s="53"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4493,7 +4500,7 @@
       <c r="J17" s="3"/>
       <c r="M17" s="53"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>519</v>
       </c>
@@ -4523,7 +4530,7 @@
       </c>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>521</v>
       </c>
@@ -4553,7 +4560,7 @@
       </c>
       <c r="M19" s="53"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4579,7 +4586,7 @@
       <c r="J20" s="3"/>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>524</v>
       </c>
@@ -4605,7 +4612,7 @@
       <c r="J21" s="3"/>
       <c r="M21" s="53"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>526</v>
       </c>
@@ -4629,7 +4636,7 @@
       </c>
       <c r="M22" s="53"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>528</v>
       </c>
@@ -4659,7 +4666,7 @@
       </c>
       <c r="M23" s="53"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>530</v>
       </c>
@@ -4683,7 +4690,7 @@
       </c>
       <c r="M24" s="53"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>449</v>
       </c>
@@ -4707,7 +4714,7 @@
       </c>
       <c r="M25" s="53"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>533</v>
       </c>
@@ -4731,7 +4738,7 @@
       </c>
       <c r="M26" s="53"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>535</v>
       </c>
@@ -4755,7 +4762,7 @@
       </c>
       <c r="M27" s="53"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>537</v>
       </c>
@@ -4785,7 +4792,7 @@
       </c>
       <c r="M28" s="53"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -4809,7 +4816,7 @@
       </c>
       <c r="M29" s="53"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>540</v>
       </c>
@@ -4833,7 +4840,7 @@
       </c>
       <c r="M30" s="53"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>542</v>
       </c>
@@ -4863,7 +4870,7 @@
       </c>
       <c r="M31" s="53"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -4887,7 +4894,7 @@
       </c>
       <c r="M32" s="53"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>544</v>
       </c>
@@ -4917,7 +4924,7 @@
       </c>
       <c r="M33" s="53"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>546</v>
       </c>
@@ -4941,7 +4948,7 @@
       </c>
       <c r="M34" s="53"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>548</v>
       </c>
@@ -4965,7 +4972,7 @@
       </c>
       <c r="M35" s="53"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
@@ -4995,7 +5002,7 @@
       </c>
       <c r="M36" s="53"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>424</v>
       </c>
@@ -5025,7 +5032,7 @@
       </c>
       <c r="M37" s="53"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>552</v>
       </c>
@@ -5049,7 +5056,7 @@
       </c>
       <c r="M38" s="53"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>554</v>
       </c>
@@ -5073,7 +5080,7 @@
       </c>
       <c r="M39" s="53"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>556</v>
       </c>
@@ -5097,7 +5104,7 @@
       </c>
       <c r="M40" s="53"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>558</v>
       </c>
@@ -5121,7 +5128,7 @@
       </c>
       <c r="M41" s="53"/>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>560</v>
       </c>
@@ -5145,7 +5152,7 @@
       </c>
       <c r="M42" s="53"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -5167,7 +5174,7 @@
       <c r="J43" s="53"/>
       <c r="M43" s="53"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>410</v>
       </c>
@@ -5207,7 +5214,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -5230,7 +5237,7 @@
     <col min="22" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5277,7 +5284,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5311,7 +5318,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5345,7 +5352,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5367,7 +5374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5378,7 +5385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5389,7 +5396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5400,7 +5407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -5411,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5422,7 +5429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5444,7 +5451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5455,7 +5462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -5466,7 +5473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -5477,7 +5484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5488,7 +5495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5499,7 +5506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5510,7 +5517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5532,7 +5539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5543,7 +5550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5554,7 +5561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5565,7 +5572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -5598,7 +5605,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
@@ -5616,7 +5623,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5697,7 +5704,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5743,7 +5750,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5754,7 +5761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,7 +5772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5776,7 +5783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5787,7 +5794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -5798,7 +5805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -5809,7 +5816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -5820,7 +5827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -5875,7 +5882,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -5893,7 +5900,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5974,7 +5981,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6015,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6030,7 +6037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6052,7 +6059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6074,7 +6081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6085,7 +6092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -6109,7 +6116,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -6162,7 +6169,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -6250,7 +6257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>108</v>
       </c>
@@ -6330,7 +6337,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6410,7 +6417,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6490,7 +6497,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -6650,7 +6657,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6730,7 +6737,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -6810,7 +6817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -6890,7 +6897,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -6970,7 +6977,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7050,7 +7057,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7266,7 +7273,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -7328,7 +7335,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -7384,7 +7391,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7434,7 +7441,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7472,7 +7479,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7504,7 +7511,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7530,7 +7537,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -7556,7 +7563,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -7582,7 +7589,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7608,7 +7615,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -7660,7 +7667,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>336</v>
       </c>
@@ -7686,7 +7693,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -7700,62 +7707,62 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -7763,7 +7770,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="J42" s="16"/>
@@ -7792,7 +7799,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -7811,7 +7818,7 @@
     <col min="16" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>164</v>
       </c>
@@ -7858,7 +7865,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
@@ -7895,7 +7902,7 @@
       </c>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
@@ -7920,7 +7927,7 @@
       </c>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
@@ -7945,7 +7952,7 @@
       </c>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
@@ -7970,7 +7977,7 @@
       </c>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>73</v>
       </c>
@@ -7995,7 +8002,7 @@
       </c>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>37</v>
       </c>
@@ -8020,7 +8027,7 @@
       </c>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
@@ -8045,7 +8052,7 @@
       </c>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>341</v>
       </c>
@@ -8080,7 +8087,7 @@
       </c>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>343</v>
       </c>
@@ -8117,7 +8124,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>182</v>
       </c>
@@ -8154,7 +8161,7 @@
       </c>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>346</v>
       </c>
@@ -8189,7 +8196,7 @@
       </c>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>348</v>
       </c>
@@ -8224,7 +8231,7 @@
       </c>
       <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>350</v>
       </c>
@@ -8259,7 +8266,7 @@
       </c>
       <c r="O14" s="35"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>353</v>
       </c>
@@ -8294,7 +8301,7 @@
       </c>
       <c r="O15" s="35"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>34</v>
       </c>
@@ -8319,7 +8326,7 @@
       </c>
       <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>35</v>
       </c>
@@ -8356,7 +8363,7 @@
       </c>
       <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>38</v>
       </c>
@@ -8393,7 +8400,7 @@
       </c>
       <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:15" ht="29.4" thickBot="1">
+    <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>39</v>
       </c>
@@ -8430,7 +8437,7 @@
       </c>
       <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>12</v>
       </c>
@@ -8465,7 +8472,7 @@
       </c>
       <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>163</v>
       </c>
@@ -8500,7 +8507,7 @@
       </c>
       <c r="O21" s="35"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>36</v>
       </c>
@@ -8534,11 +8541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="1" customWidth="1"/>
@@ -8556,7 +8563,7 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -8597,7 +8604,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -8623,10 +8630,10 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="43" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -8661,7 +8668,7 @@
       </c>
       <c r="M3" s="44"/>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8692,7 +8699,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8723,7 +8730,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -8754,7 +8761,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -8785,7 +8792,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -8820,7 +8827,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="44"/>
     </row>
-    <row r="9" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>413</v>
       </c>
@@ -8853,7 +8860,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>37</v>
       </c>
@@ -8886,7 +8893,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="44"/>
     </row>
-    <row r="11" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -8919,7 +8926,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>120</v>
       </c>
@@ -8952,7 +8959,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="44"/>
     </row>
-    <row r="13" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>42</v>
       </c>
@@ -8985,7 +8992,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>43</v>
       </c>
@@ -9018,7 +9025,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="44"/>
     </row>
-    <row r="15" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>398</v>
       </c>
@@ -9049,7 +9056,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="44"/>
     </row>
-    <row r="16" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>399</v>
       </c>
@@ -9084,7 +9091,7 @@
       </c>
       <c r="M16" s="44"/>
     </row>
-    <row r="17" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
@@ -9117,7 +9124,7 @@
       <c r="L17" s="31"/>
       <c r="M17" s="44"/>
     </row>
-    <row r="18" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
@@ -9150,7 +9157,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="44"/>
     </row>
-    <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -9185,7 +9192,7 @@
       </c>
       <c r="M19" s="44"/>
     </row>
-    <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>312</v>
       </c>
@@ -9210,7 +9217,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>577</v>
       </c>
@@ -9235,7 +9242,7 @@
       <c r="L21" s="31"/>
       <c r="M21" s="44"/>
     </row>
-    <row r="22" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>94</v>
       </c>
@@ -9260,7 +9267,7 @@
       <c r="L22" s="31"/>
       <c r="M22" s="44"/>
     </row>
-    <row r="23" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>410</v>
       </c>
@@ -9301,13 +9308,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.88671875" style="1" customWidth="1"/>
@@ -9324,7 +9331,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -9365,7 +9372,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>419</v>
       </c>
@@ -9391,10 +9398,10 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="48" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>422</v>
       </c>
@@ -9427,7 +9434,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>424</v>
       </c>
@@ -9460,7 +9467,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -9487,7 +9494,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -9514,7 +9521,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -9541,7 +9548,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -9568,7 +9575,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -9603,18 +9610,18 @@
       <c r="L9" s="31"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
+    <row r="10" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
+        <v>0</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>183</v>
+        <v>582</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>405</v>
+        <v>512</v>
       </c>
       <c r="D10" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31" t="s">
@@ -9632,24 +9639,22 @@
       <c r="J10" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>465</v>
-      </c>
+      <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
+    <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>427</v>
+        <v>183</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D11" s="31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
@@ -9662,27 +9667,29 @@
         <v>380</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="K11" s="31"/>
+        <v>583</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>465</v>
+      </c>
       <c r="L11" s="31"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A12" s="31" t="s">
-        <v>102</v>
+    <row r="12" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>403</v>
       </c>
       <c r="D12" s="31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
@@ -9695,23 +9702,21 @@
         <v>380</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>469</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>403</v>
@@ -9730,21 +9735,23 @@
         <v>380</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>464</v>
-      </c>
-      <c r="K13" s="31"/>
+        <v>470</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>469</v>
+      </c>
       <c r="L13" s="31"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:13" ht="28.8" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>498</v>
+        <v>429</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>403</v>
@@ -9752,9 +9759,7 @@
       <c r="D14" s="31">
         <v>30</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>430</v>
-      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="31" t="s">
         <v>378</v>
       </c>
@@ -9765,29 +9770,30 @@
         <v>380</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>466</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="K14" s="31"/>
       <c r="L14" s="31"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:13" ht="31.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="31">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>430</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>378</v>
@@ -9798,27 +9804,30 @@
       <c r="H15" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="31"/>
+      <c r="I15" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>466</v>
+      </c>
       <c r="L15" s="31"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="D16" s="31">
-        <v>2</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>378</v>
@@ -9830,42 +9839,48 @@
         <v>380</v>
       </c>
       <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="31">
+        <v>2</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="31" t="s">
         <v>579</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" s="31">
-        <v>20</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A18" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>578</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>512</v>
@@ -9875,7 +9890,7 @@
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
@@ -9885,62 +9900,87 @@
       <c r="L18" s="23"/>
       <c r="M18" s="48"/>
     </row>
-    <row r="19" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>94</v>
+        <v>577</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>512</v>
       </c>
       <c r="D19" s="31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="45" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="48"/>
     </row>
-    <row r="20" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>411</v>
+    <row r="20" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>400</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="D20" s="31">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="45" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
+      <c r="K20"/>
+      <c r="L20"/>
       <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" s="31">
+        <v>19</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="M21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M2:M20"/>
+    <mergeCell ref="M2:M21"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F18:J18"/>
     <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9954,7 +9994,7 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.21875" style="1" customWidth="1"/>
@@ -9972,7 +10012,7 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10013,7 +10053,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>436</v>
       </c>
@@ -10042,7 +10082,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>422</v>
       </c>
@@ -10075,7 +10115,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="50"/>
     </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>424</v>
       </c>
@@ -10108,7 +10148,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -10135,7 +10175,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="50"/>
     </row>
-    <row r="6" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -10162,7 +10202,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="50"/>
     </row>
-    <row r="7" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -10189,7 +10229,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="50"/>
     </row>
-    <row r="8" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -10216,7 +10256,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="50"/>
     </row>
-    <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -10251,7 +10291,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="50"/>
     </row>
-    <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -10286,7 +10326,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="50"/>
     </row>
-    <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -10321,7 +10361,7 @@
       </c>
       <c r="M11" s="50"/>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>440</v>
       </c>
@@ -10358,7 +10398,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="50"/>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>106</v>
       </c>
@@ -10395,7 +10435,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="50"/>
     </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>107</v>
       </c>
@@ -10428,7 +10468,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="50"/>
     </row>
-    <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>312</v>
       </c>
@@ -10453,7 +10493,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="50"/>
     </row>
-    <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>577</v>
       </c>
@@ -10478,7 +10518,7 @@
       <c r="L16" s="31"/>
       <c r="M16" s="50"/>
     </row>
-    <row r="17" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>94</v>
       </c>
@@ -10503,7 +10543,7 @@
       <c r="L17" s="31"/>
       <c r="M17" s="50"/>
     </row>
-    <row r="18" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>410</v>
       </c>
@@ -10550,7 +10590,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -10569,7 +10609,7 @@
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -10616,7 +10656,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -10648,7 +10688,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10680,7 +10720,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -10691,7 +10731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -10702,7 +10742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -10713,7 +10753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -10724,7 +10764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -10735,7 +10775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -10746,7 +10786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -10757,7 +10797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -10768,7 +10808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -10783,7 +10823,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1">
+    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -10797,7 +10837,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -10808,7 +10848,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -10819,7 +10859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -10843,7 +10883,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -10872,7 +10912,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -10946,7 +10986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11020,7 +11060,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -11030,7 +11070,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I4" s="51" t="s">
         <v>337</v>
       </c>
@@ -11043,7 +11083,7 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>164</v>
       </c>
@@ -11096,7 +11136,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -11131,7 +11171,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -11166,7 +11206,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -11180,7 +11220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -11194,7 +11234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -11208,7 +11248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -11222,7 +11262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -11236,7 +11276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -11250,7 +11290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -11264,7 +11304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -11278,7 +11318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -11292,7 +11332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -11306,7 +11346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>249</v>
       </c>
@@ -11320,7 +11360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -11334,7 +11374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -11348,7 +11388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -11362,7 +11402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -11376,7 +11416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -11390,7 +11430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -11404,7 +11444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -11418,7 +11458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -11432,7 +11472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
@@ -11446,7 +11486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -11460,7 +11500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -11490,7 +11530,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -11520,7 +11560,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -11597,7 +11637,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11674,7 +11714,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I3" s="51" t="s">
         <v>337</v>
       </c>
@@ -11687,7 +11727,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6">
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
@@ -11740,7 +11780,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -11775,7 +11815,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -11810,7 +11850,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -11824,7 +11864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -11838,7 +11878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -11852,7 +11892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -11866,7 +11906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -11880,7 +11920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -11894,7 +11934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -11908,7 +11948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -11925,7 +11965,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -11942,7 +11982,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -11959,7 +11999,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -11976,7 +12016,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -11993,7 +12033,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -12010,7 +12050,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -12027,7 +12067,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -12044,7 +12084,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -12061,7 +12101,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -12078,7 +12118,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -12095,7 +12135,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -12112,7 +12152,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -12129,7 +12169,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -12146,7 +12186,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -12163,7 +12203,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B8344-8518-44F8-A598-44ABB98E12A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F291AA71-8256-405B-B5FB-C1A649951409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="787" firstSheet="3" activeTab="5" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="787" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="585">
   <si>
     <t>CPF</t>
   </si>
@@ -1790,9 +1790,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>( 9 , 53 )</t>
   </si>
   <si>
     <t>MENOR_VCTO</t>
@@ -1957,12 +1954,15 @@
   <si>
     <t>PESSOAS.COD_PES=PESSOAS_ENDERECO.COD_PES</t>
   </si>
+  <si>
+    <t>( 15 , 2 )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2323,7 +2323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2482,6 +2482,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2804,15 +2807,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2823,67 +2826,67 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2901,22 +2904,22 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -2983,7 +2986,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -3011,7 +3014,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3040,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3066,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -3089,7 +3092,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -3115,7 +3118,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -3149,7 +3152,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>92</v>
       </c>
@@ -3177,7 +3180,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -3211,7 +3214,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>445</v>
       </c>
@@ -3239,7 +3242,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
@@ -3267,7 +3270,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>40</v>
       </c>
@@ -3295,7 +3298,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>449</v>
       </c>
@@ -3323,7 +3326,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>95</v>
       </c>
@@ -3351,7 +3354,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>94</v>
       </c>
@@ -3375,7 +3378,7 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" ht="19.8" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>410</v>
       </c>
@@ -3416,23 +3419,23 @@
       <selection activeCell="B10" sqref="B10:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="23.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="13.33203125" style="2"/>
+    <col min="1" max="1" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="13.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -3535,7 +3538,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="52"/>
     </row>
-    <row r="4" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3562,7 +3565,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="52"/>
     </row>
-    <row r="5" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -3589,7 +3592,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="52"/>
     </row>
-    <row r="6" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -3616,7 +3619,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="52"/>
     </row>
-    <row r="7" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -3643,7 +3646,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="52"/>
     </row>
-    <row r="8" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -3678,7 +3681,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="52"/>
     </row>
-    <row r="9" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>92</v>
       </c>
@@ -3713,7 +3716,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="52"/>
     </row>
-    <row r="10" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -3748,7 +3751,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="52"/>
     </row>
-    <row r="11" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>452</v>
       </c>
@@ -3783,7 +3786,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="52"/>
     </row>
-    <row r="12" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>47</v>
       </c>
@@ -3818,7 +3821,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="52"/>
     </row>
-    <row r="13" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>455</v>
       </c>
@@ -3851,7 +3854,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="52"/>
     </row>
-    <row r="14" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>457</v>
       </c>
@@ -3886,7 +3889,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>96</v>
       </c>
@@ -3919,7 +3922,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="52"/>
     </row>
-    <row r="16" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>94</v>
       </c>
@@ -3944,7 +3947,7 @@
       <c r="L16" s="31"/>
       <c r="M16" s="52"/>
     </row>
-    <row r="17" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>410</v>
       </c>
@@ -3982,42 +3985,42 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4079,10 +4082,10 @@
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
       <c r="M2" s="48" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4109,7 +4112,7 @@
       </c>
       <c r="M3" s="53"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4136,7 +4139,7 @@
       </c>
       <c r="M4" s="53"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -4163,7 +4166,7 @@
       </c>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4190,7 +4193,7 @@
       </c>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>508</v>
       </c>
@@ -4223,7 +4226,7 @@
       </c>
       <c r="M7" s="53"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>510</v>
       </c>
@@ -4250,7 +4253,7 @@
       </c>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4283,7 @@
       </c>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +4313,7 @@
       </c>
       <c r="M10" s="53"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4318,10 +4321,10 @@
         <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>405</v>
+        <v>512</v>
       </c>
       <c r="D11" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>378</v>
@@ -4336,11 +4339,11 @@
         <v>500</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M11" s="53"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4364,7 +4367,7 @@
       </c>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>514</v>
       </c>
@@ -4394,7 +4397,7 @@
       </c>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>516</v>
       </c>
@@ -4424,7 +4427,7 @@
       </c>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4450,11 +4453,11 @@
         <v>460</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4476,11 +4479,9 @@
       <c r="H16" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
       <c r="M16" s="53"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4502,11 +4503,9 @@
       <c r="H17" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
       <c r="M17" s="53"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>519</v>
       </c>
@@ -4532,11 +4531,11 @@
         <v>460</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M18" s="53"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>521</v>
       </c>
@@ -4562,11 +4561,11 @@
         <v>460</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M19" s="53"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4588,11 +4587,9 @@
       <c r="H20" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
       <c r="M20" s="53"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>524</v>
       </c>
@@ -4614,11 +4611,9 @@
       <c r="H21" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
       <c r="M21" s="53"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>526</v>
       </c>
@@ -4642,7 +4637,7 @@
       </c>
       <c r="M22" s="53"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>528</v>
       </c>
@@ -4672,7 +4667,7 @@
       </c>
       <c r="M23" s="53"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>530</v>
       </c>
@@ -4696,7 +4691,7 @@
       </c>
       <c r="M24" s="53"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>449</v>
       </c>
@@ -4720,7 +4715,7 @@
       </c>
       <c r="M25" s="53"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>533</v>
       </c>
@@ -4744,7 +4739,7 @@
       </c>
       <c r="M26" s="53"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>535</v>
       </c>
@@ -4768,7 +4763,7 @@
       </c>
       <c r="M27" s="53"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>537</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>451</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>378</v>
@@ -4798,7 +4793,7 @@
       </c>
       <c r="M28" s="53"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -4809,7 +4804,7 @@
         <v>451</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>378</v>
@@ -4822,7 +4817,7 @@
       </c>
       <c r="M29" s="53"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>540</v>
       </c>
@@ -4846,7 +4841,7 @@
       </c>
       <c r="M30" s="53"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>542</v>
       </c>
@@ -4872,11 +4867,11 @@
         <v>565</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M31" s="53"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -4900,7 +4895,7 @@
       </c>
       <c r="M32" s="53"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>544</v>
       </c>
@@ -4923,14 +4918,14 @@
         <v>380</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M33" s="53"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>546</v>
       </c>
@@ -4954,7 +4949,7 @@
       </c>
       <c r="M34" s="53"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>548</v>
       </c>
@@ -4978,7 +4973,7 @@
       </c>
       <c r="M35" s="53"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
@@ -5004,11 +4999,11 @@
         <v>382</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M36" s="53"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>424</v>
       </c>
@@ -5031,14 +5026,14 @@
         <v>380</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M37" s="53"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>552</v>
       </c>
@@ -5062,7 +5057,7 @@
       </c>
       <c r="M38" s="53"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>554</v>
       </c>
@@ -5086,7 +5081,7 @@
       </c>
       <c r="M39" s="53"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>556</v>
       </c>
@@ -5110,7 +5105,7 @@
       </c>
       <c r="M40" s="53"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>558</v>
       </c>
@@ -5134,7 +5129,7 @@
       </c>
       <c r="M41" s="53"/>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1">
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>560</v>
       </c>
@@ -5158,56 +5153,107 @@
       </c>
       <c r="M42" s="53"/>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D43" s="31">
+        <v>20</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="47"/>
+      <c r="M43" s="53"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D44" s="31">
+        <v>20</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
+      <c r="M44" s="53"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C45" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D45" s="31">
         <v>30</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="M43" s="53"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D46" s="31">
         <v>19</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="E46" s="31"/>
+      <c r="F46" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="M44" s="53"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="F46:J46"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="M2:M44"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5220,30 +5266,30 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5290,7 +5336,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5324,7 +5370,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5358,7 +5404,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5369,7 +5415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5380,7 +5426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5391,7 +5437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5402,7 +5448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5413,7 +5459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -5424,7 +5470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5435,7 +5481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5446,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5457,7 +5503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5468,7 +5514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -5479,7 +5525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -5490,7 +5536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5501,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5512,7 +5558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5523,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5534,7 +5580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5545,7 +5591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5556,7 +5602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5567,7 +5613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5578,7 +5624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -5589,7 +5635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -5611,25 +5657,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5676,7 +5722,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5710,7 +5756,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5790,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5756,7 +5802,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5767,7 +5813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5778,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5789,7 +5835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5800,7 +5846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -5811,7 +5857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -5822,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -5833,7 +5879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -5844,7 +5890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,7 +5901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -5866,7 +5912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -5888,25 +5934,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5953,7 +5999,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5987,7 +6033,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6021,7 +6067,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6032,7 +6078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6043,7 +6089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6054,7 +6100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6065,7 +6111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6076,7 +6122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6087,7 +6133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6098,7 +6144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -6122,60 +6168,60 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="0.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="0.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0.88671875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="0.88671875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="0.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="0.88671875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="0.88671875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="55" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="0.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="0.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="0.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="0.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="0.85546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="0.85546875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="0.85546875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="8.88671875" style="1"/>
+    <col min="58" max="58" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -6219,7 +6265,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -6263,7 +6309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>108</v>
       </c>
@@ -6343,7 +6389,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6469,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6503,7 +6549,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -6583,7 +6629,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -6663,7 +6709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6743,7 +6789,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -6823,7 +6869,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -6903,7 +6949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -6983,7 +7029,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7063,7 +7109,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7143,7 +7189,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -7217,7 +7263,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7279,7 +7325,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -7341,7 +7387,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -7397,7 +7443,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7447,7 +7493,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7485,7 +7531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7517,7 +7563,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7543,7 +7589,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -7569,7 +7615,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -7595,7 +7641,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7621,7 +7667,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -7647,7 +7693,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -7673,7 +7719,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>336</v>
       </c>
@@ -7699,7 +7745,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -7713,62 +7759,62 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -7776,7 +7822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="J42" s="16"/>
@@ -7805,26 +7851,26 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.6640625" style="1"/>
+    <col min="12" max="12" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>164</v>
       </c>
@@ -7871,7 +7917,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
@@ -7908,7 +7954,7 @@
       </c>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
@@ -7933,7 +7979,7 @@
       </c>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
@@ -7958,7 +8004,7 @@
       </c>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
@@ -7983,7 +8029,7 @@
       </c>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>73</v>
       </c>
@@ -8008,7 +8054,7 @@
       </c>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1">
+    <row r="7" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>37</v>
       </c>
@@ -8033,7 +8079,7 @@
       </c>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
@@ -8058,7 +8104,7 @@
       </c>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
+    <row r="9" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>341</v>
       </c>
@@ -8093,7 +8139,7 @@
       </c>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>343</v>
       </c>
@@ -8130,7 +8176,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>182</v>
       </c>
@@ -8167,7 +8213,7 @@
       </c>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
+    <row r="12" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>346</v>
       </c>
@@ -8202,7 +8248,7 @@
       </c>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
+    <row r="13" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>348</v>
       </c>
@@ -8237,7 +8283,7 @@
       </c>
       <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>350</v>
       </c>
@@ -8272,7 +8318,7 @@
       </c>
       <c r="O14" s="35"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>353</v>
       </c>
@@ -8307,7 +8353,7 @@
       </c>
       <c r="O15" s="35"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>34</v>
       </c>
@@ -8332,7 +8378,7 @@
       </c>
       <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>35</v>
       </c>
@@ -8369,7 +8415,7 @@
       </c>
       <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
+    <row r="18" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>38</v>
       </c>
@@ -8406,7 +8452,7 @@
       </c>
       <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:15" ht="29.4" thickBot="1">
+    <row r="19" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>39</v>
       </c>
@@ -8443,7 +8489,7 @@
       </c>
       <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>12</v>
       </c>
@@ -8478,7 +8524,7 @@
       </c>
       <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>163</v>
       </c>
@@ -8513,7 +8559,7 @@
       </c>
       <c r="O21" s="35"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>36</v>
       </c>
@@ -8551,25 +8597,25 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -8610,7 +8656,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -8636,10 +8682,10 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="43" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25.8" customHeight="1" thickBot="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -8674,7 +8720,7 @@
       </c>
       <c r="M3" s="44"/>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8705,7 +8751,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8736,7 +8782,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -8767,7 +8813,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -8798,7 +8844,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -8833,7 +8879,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="44"/>
     </row>
-    <row r="9" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>413</v>
       </c>
@@ -8866,7 +8912,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>37</v>
       </c>
@@ -8899,7 +8945,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="44"/>
     </row>
-    <row r="11" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -8932,7 +8978,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>120</v>
       </c>
@@ -8965,7 +9011,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="44"/>
     </row>
-    <row r="13" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>42</v>
       </c>
@@ -8998,7 +9044,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>43</v>
       </c>
@@ -9031,7 +9077,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="44"/>
     </row>
-    <row r="15" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>398</v>
       </c>
@@ -9062,7 +9108,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="44"/>
     </row>
-    <row r="16" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>399</v>
       </c>
@@ -9097,7 +9143,7 @@
       </c>
       <c r="M16" s="44"/>
     </row>
-    <row r="17" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
@@ -9130,7 +9176,7 @@
       <c r="L17" s="31"/>
       <c r="M17" s="44"/>
     </row>
-    <row r="18" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
@@ -9163,7 +9209,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="44"/>
     </row>
-    <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -9198,12 +9244,12 @@
       </c>
       <c r="M19" s="44"/>
     </row>
-    <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>512</v>
@@ -9223,12 +9269,12 @@
       <c r="L20" s="31"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>577</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>578</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>512</v>
@@ -9248,7 +9294,7 @@
       <c r="L21" s="31"/>
       <c r="M21" s="44"/>
     </row>
-    <row r="22" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>94</v>
       </c>
@@ -9273,7 +9319,7 @@
       <c r="L22" s="31"/>
       <c r="M22" s="44"/>
     </row>
-    <row r="23" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>410</v>
       </c>
@@ -9320,24 +9366,24 @@
       <selection activeCell="M2" sqref="M2:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -9378,7 +9424,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>419</v>
       </c>
@@ -9404,10 +9450,10 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="48" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>422</v>
       </c>
@@ -9440,7 +9486,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>424</v>
       </c>
@@ -9473,7 +9519,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -9500,7 +9546,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -9527,7 +9573,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -9554,7 +9600,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:13" ht="19.8" hidden="1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -9581,7 +9627,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -9616,12 +9662,12 @@
       <c r="L9" s="31"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>512</v>
@@ -9649,7 +9695,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -9676,7 +9722,7 @@
         <v>460</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>465</v>
@@ -9684,7 +9730,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9717,7 +9763,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>102</v>
       </c>
@@ -9752,7 +9798,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>103</v>
       </c>
@@ -9785,7 +9831,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:13" ht="28.8" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
@@ -9822,7 +9868,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="1:13" ht="31.2" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>431</v>
       </c>
@@ -9850,7 +9896,7 @@
       <c r="L16" s="31"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>88</v>
       </c>
@@ -9881,12 +9927,12 @@
       <c r="L17" s="31"/>
       <c r="M17" s="48"/>
     </row>
-    <row r="18" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>512</v>
@@ -9906,12 +9952,12 @@
       <c r="L18" s="23"/>
       <c r="M18" s="48"/>
     </row>
-    <row r="19" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>577</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>578</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>512</v>
@@ -9931,7 +9977,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="48"/>
     </row>
-    <row r="20" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>94</v>
       </c>
@@ -9956,7 +10002,7 @@
       <c r="L20"/>
       <c r="M20" s="48"/>
     </row>
-    <row r="21" spans="1:13" ht="19.8" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>410</v>
       </c>
@@ -9996,29 +10042,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="29.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10059,7 +10105,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>436</v>
       </c>
@@ -10088,7 +10134,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>422</v>
       </c>
@@ -10121,7 +10167,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="50"/>
     </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>424</v>
       </c>
@@ -10154,7 +10200,7 @@
       <c r="L4" s="31"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -10181,7 +10227,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="50"/>
     </row>
-    <row r="6" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -10208,7 +10254,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="50"/>
     </row>
-    <row r="7" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -10235,7 +10281,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="50"/>
     </row>
-    <row r="8" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -10262,7 +10308,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="50"/>
     </row>
-    <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -10297,12 +10343,12 @@
       <c r="L9" s="31"/>
       <c r="M9" s="50"/>
     </row>
-    <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>512</v>
@@ -10330,7 +10376,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="50"/>
     </row>
-    <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -10357,15 +10403,15 @@
         <v>460</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="50"/>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -10400,7 +10446,7 @@
       </c>
       <c r="M12" s="50"/>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>440</v>
       </c>
@@ -10437,7 +10483,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="50"/>
     </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>106</v>
       </c>
@@ -10474,7 +10520,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="50"/>
     </row>
-    <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>107</v>
       </c>
@@ -10507,12 +10553,12 @@
       <c r="L15" s="31"/>
       <c r="M15" s="50"/>
     </row>
-    <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>512</v>
@@ -10532,12 +10578,12 @@
       <c r="L16" s="31"/>
       <c r="M16" s="50"/>
     </row>
-    <row r="17" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>577</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>578</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>512</v>
@@ -10557,7 +10603,7 @@
       <c r="L17" s="31"/>
       <c r="M17" s="50"/>
     </row>
-    <row r="18" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>94</v>
       </c>
@@ -10582,7 +10628,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="50"/>
     </row>
-    <row r="19" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>410</v>
       </c>
@@ -10629,26 +10675,26 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -10695,7 +10741,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -10727,7 +10773,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10759,7 +10805,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -10770,7 +10816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -10781,7 +10827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -10792,7 +10838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -10803,7 +10849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -10814,7 +10860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -10825,7 +10871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -10836,7 +10882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -10847,7 +10893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -10862,7 +10908,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1">
+    <row r="13" spans="1:15" ht="49.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -10876,7 +10922,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -10887,7 +10933,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -10898,7 +10944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -10922,36 +10968,36 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -11025,7 +11071,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11099,7 +11145,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -11109,7 +11155,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I4" s="51" t="s">
         <v>337</v>
       </c>
@@ -11122,7 +11168,7 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>164</v>
       </c>
@@ -11175,7 +11221,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -11210,7 +11256,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -11245,7 +11291,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -11259,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -11273,7 +11319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1">
+    <row r="10" spans="1:24" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -11287,7 +11333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -11301,7 +11347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -11315,7 +11361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -11329,7 +11375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -11343,7 +11389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -11357,7 +11403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -11371,7 +11417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -11385,7 +11431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>249</v>
       </c>
@@ -11399,7 +11445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -11413,7 +11459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -11427,7 +11473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -11441,7 +11487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -11455,7 +11501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -11469,7 +11515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -11483,7 +11529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -11497,7 +11543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -11511,7 +11557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
@@ -11525,7 +11571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -11539,7 +11585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -11569,37 +11615,37 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -11676,7 +11722,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11753,7 +11799,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I3" s="51" t="s">
         <v>337</v>
       </c>
@@ -11766,7 +11812,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6">
+    <row r="4" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
@@ -11819,7 +11865,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -11854,7 +11900,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -11889,7 +11935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -11903,7 +11949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -11917,7 +11963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -11931,7 +11977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -11945,7 +11991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -11959,7 +12005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -11973,7 +12019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -11987,7 +12033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -12004,7 +12050,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -12021,7 +12067,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -12038,7 +12084,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -12055,7 +12101,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -12072,7 +12118,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -12089,7 +12135,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -12106,7 +12152,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -12123,7 +12169,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -12140,7 +12186,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -12157,7 +12203,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -12174,7 +12220,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -12191,7 +12237,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -12208,7 +12254,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -12225,7 +12271,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -12242,7 +12288,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/VCOM/MAPEAMENTO_VCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\VCOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F291AA71-8256-405B-B5FB-C1A649951409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8611EBFB-AA34-489E-AD7C-3D780145ACA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="787" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="10" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="MULTICANAIS" sheetId="9" state="hidden" r:id="rId7"/>
     <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId9"/>
-    <sheet name="ACORDOS" sheetId="7" r:id="rId10"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId10"/>
     <sheet name="PAGAMENTOS" sheetId="8" r:id="rId11"/>
     <sheet name="CARTEIRA ATIVA" sheetId="1" r:id="rId12"/>
     <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId13"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ACORDOS!$H$1:$H$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EMAIL!$H$1:$H$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PAGAMENTOS!$H$1:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PAGAMENTOS!$H$1:$H$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TELEFONE!$H$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="586">
   <si>
     <t>CPF</t>
   </si>
@@ -1591,22 +1591,6 @@
   </si>
   <si>
     <t>TITULOS.COD_DEV=V_DEVEDORES.COD_DEV</t>
-  </si>
-  <si>
-    <t>SELECT 
-A.DT_PGTO_REC AS DATA,
-'230' AS 'COD_CRM',
-B.CONTRATO_TIT AS ACORDO_ID,
-E.CPFCGC_PES AS ID_KEY,
-C.NOME_FUNC AS USUARIO_PAGAMENTO,
-A.FORMA_PG_REC AS TIPO_PAGAMENTO,
-D.DES_PGTO AS TIPO_PAGAMENTO_NOME,
-A.VALOR_RECEBIDO_REC AS VALOR_PAGAMENTO
-FROM RECEBIMENTOS A WITH (NOLOCK)
-INNER JOIN TITULOS B WITH(NOLOCK) ON A.COD_TIT = B.COD_TIT
-INNER JOIN V_DEVEDORES E WITH (NOLOCK) ON B.COD_DEV = E.COD_DEV
-INNER JOIN V_FUNCIONARIOS C WITH (NOLOCK) ON A.USUARIO_CAD = C.COD_FUNC
-INNER JOIN V_FORMA_PGTO D WITH (NOLOCK) ON A.FORMA_PG_REC = D.COD_PGTO</t>
   </si>
   <si>
     <t>DATA DA BASE</t>
@@ -1957,12 +1941,37 @@
   <si>
     <t>( 15 , 2 )</t>
   </si>
+  <si>
+    <t>COD_TIT</t>
+  </si>
+  <si>
+    <t>SELECT TOP 10
+    CAST(R.DT_PGTO_REC AS DATETIME2) AS DATA,
+    CAST(230 AS INT) AS COD_CRM,
+    CAST(REPLACE(T.CONTRATO_TIT, '.', '') AS BIGINT) AS ID_ACORDO,
+    CAST(VD.CPFCGC_PES AS VARCHAR(20)) AS CPF,
+    CAST(R.COD_TIT AS BIGINT) AS ID_KEY,
+    CAST(VF.NOME_FUNC AS NVARCHAR(50)) AS USUARIO_PAGAMENTO,
+    CAST(VF.NOME_FUNC AS NVARCHAR(150)) AS OPERADOR,
+    CAST(R.FORMA_PG_REC AS INT) AS TIPO_PAGAMENTO,
+    CAST(VPGTO.DES_PGTO AS NVARCHAR(100)) AS TIPO_PAGAMENTO_NOME,
+    CAST(R.VALOR_RECEBIDO_REC AS NUMERIC(9,2)) AS VALOR_PAGAMENTO,
+    CAST('52.179.19.141' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('MF_cobsystems' AS VARCHAR(20)) AS BANCO,
+    CAST('VCOM' AS VARCHAR(30)) AS ORIGEM
+FROM TITULOS T WITH (NOLOCK)
+INNER JOIN RECEBIMENTOS R ON R.COD_TIT = T.COD_TIT
+INNER JOIN v_devedores VD ON T.COD_DEV = VD.COD_DEV
+INNER JOIN V_FUNCIONARIOS VF ON R.USUARIO_CAD = VF.COD_FUNC
+INNER JOIN V_FORMA_PGTO VPGTO ON VPGTO.COD_PGTO = R.FORMA_PG_REC
+ORDER BY 1 DESC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2451,6 +2460,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2482,9 +2494,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2807,15 +2816,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2826,67 +2835,67 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2904,22 +2913,22 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -2960,7 +2969,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -2976,17 +2985,17 @@
       <c r="E2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -3014,7 +3023,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -3040,7 +3049,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3075,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -3092,7 +3101,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -3118,7 +3127,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -3152,7 +3161,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>92</v>
       </c>
@@ -3180,7 +3189,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -3214,7 +3223,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A11" s="31" t="s">
         <v>445</v>
       </c>
@@ -3242,7 +3251,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
@@ -3270,7 +3279,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
         <v>40</v>
       </c>
@@ -3298,7 +3307,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
         <v>449</v>
       </c>
@@ -3326,7 +3335,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
         <v>95</v>
       </c>
@@ -3354,7 +3363,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
         <v>94</v>
       </c>
@@ -3368,17 +3377,17 @@
         <v>30</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>410</v>
       </c>
@@ -3392,13 +3401,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="L17"/>
     </row>
   </sheetData>
@@ -3413,29 +3422,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:K10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="23.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="13.28515625" style="2"/>
+    <col min="1" max="1" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="13.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -3492,20 +3501,20 @@
       <c r="E2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="52" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="53" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -3536,128 +3545,158 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="52"/>
-    </row>
-    <row r="4" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>166</v>
+        <v>390</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D4" s="31">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G4" s="31"/>
+        <v>378</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>379</v>
+      </c>
       <c r="H4" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+        <v>380</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="L4" s="31"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D5" s="31">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="31"/>
+        <v>378</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>379</v>
+      </c>
       <c r="H5" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+        <v>380</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="L5" s="31"/>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>404</v>
+        <v>511</v>
       </c>
       <c r="D6" s="31">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="31"/>
+        <v>378</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>379</v>
+      </c>
       <c r="H6" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+        <v>380</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>463</v>
+      </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>73</v>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+      <c r="A7" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D7" s="31">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="31"/>
+        <v>378</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>379</v>
+      </c>
       <c r="H7" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+        <v>380</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>504</v>
+      </c>
       <c r="L7" s="31"/>
-      <c r="M7" s="52"/>
-    </row>
-    <row r="8" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
-        <v>72</v>
+        <v>452</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D8" s="31">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31" t="s">
@@ -3670,29 +3709,29 @@
         <v>380</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>391</v>
+        <v>491</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>222</v>
+        <v>454</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D9" s="31">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31" t="s">
@@ -3705,29 +3744,29 @@
         <v>380</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="52"/>
-    </row>
-    <row r="10" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+      <c r="A10" s="31" t="s">
+        <v>455</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>183</v>
+        <v>456</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="31">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31" t="s">
@@ -3740,29 +3779,27 @@
         <v>380</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>504</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="52"/>
-    </row>
-    <row r="11" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A11" s="31" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>403</v>
       </c>
       <c r="D11" s="31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
@@ -3775,29 +3812,29 @@
         <v>380</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="52"/>
-    </row>
-    <row r="12" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>454</v>
+        <v>231</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="D12" s="31">
-        <v>150</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" t="s">
@@ -3810,174 +3847,117 @@
         <v>380</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>490</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="52"/>
-    </row>
-    <row r="13" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
-        <v>455</v>
+        <v>312</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>456</v>
+        <v>577</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>404</v>
+        <v>511</v>
       </c>
       <c r="D13" s="31">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="F13" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>487</v>
-      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="52"/>
-    </row>
-    <row r="14" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
-        <v>457</v>
+        <v>575</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>458</v>
+        <v>576</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>403</v>
+        <v>511</v>
       </c>
       <c r="D14" s="31">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+      <c r="A15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="D15" s="31">
+        <v>30</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="D15" s="31">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="52"/>
-    </row>
-    <row r="16" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>400</v>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D16" s="31">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="52"/>
-    </row>
-    <row r="17" spans="1:13" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="D17" s="31">
-        <v>19</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="52"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="M2:M17"/>
+    <mergeCell ref="M2:M14"/>
+    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3987,40 +3967,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="1"/>
+    <col min="32" max="32" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -4061,12 +4041,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>299</v>
@@ -4074,18 +4054,18 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>507</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="M2" s="48" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="M2" s="49" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4110,9 +4090,9 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="53"/>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4137,9 +4117,9 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="53"/>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -4164,9 +4144,9 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4191,14 +4171,14 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="53"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>404</v>
@@ -4224,17 +4204,17 @@
       <c r="K7" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="M7" s="53"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -4251,9 +4231,9 @@
       <c r="H8" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M8" s="53"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4261,7 +4241,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -4276,14 +4256,14 @@
         <v>380</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M9" s="53"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4311,9 +4291,9 @@
       <c r="J10" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="M10" s="53"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4321,7 +4301,7 @@
         <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
@@ -4339,16 +4319,16 @@
         <v>500</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="M11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>405</v>
@@ -4365,17 +4345,17 @@
       <c r="H12" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M12" s="53"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D13" s="1">
         <v>55</v>
@@ -4395,17 +4375,17 @@
       <c r="J13" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="M13" s="53"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D14" s="1">
         <v>65</v>
@@ -4423,11 +4403,11 @@
         <v>382</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="M14" s="53"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4435,7 +4415,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
@@ -4453,11 +4433,11 @@
         <v>460</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="M15" s="53"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4465,7 +4445,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -4479,9 +4459,9 @@
       <c r="H16" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M16" s="53"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4489,7 +4469,7 @@
         <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
@@ -4503,17 +4483,17 @@
       <c r="H17" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M17" s="53"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="54"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D18" s="1">
         <v>150</v>
@@ -4531,19 +4511,19 @@
         <v>460</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M18" s="53"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -4561,19 +4541,19 @@
         <v>460</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M19" s="53"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4587,14 +4567,14 @@
       <c r="H20" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M20" s="53"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>407</v>
@@ -4611,17 +4591,17 @@
       <c r="H21" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M21" s="53"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D22" s="1">
         <v>25</v>
@@ -4635,17 +4615,17 @@
       <c r="H22" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M22" s="53"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D23" s="1">
         <v>200</v>
@@ -4663,16 +4643,16 @@
         <v>382</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M23" s="53"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="M23" s="54"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>404</v>
@@ -4689,14 +4669,14 @@
       <c r="H24" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M24" s="53"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>404</v>
@@ -4713,17 +4693,17 @@
       <c r="H25" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M25" s="53"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
@@ -4737,17 +4717,17 @@
       <c r="H26" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M26" s="53"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D27" s="1">
         <v>20</v>
@@ -4761,20 +4741,20 @@
       <c r="H27" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M27" s="53"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="54"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>451</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>378</v>
@@ -4786,25 +4766,25 @@
         <v>380</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="M28" s="53"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>451</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>378</v>
@@ -4815,17 +4795,17 @@
       <c r="H29" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M29" s="53"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>541</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -4839,14 +4819,14 @@
       <c r="H30" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M30" s="53"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="54"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>407</v>
@@ -4864,14 +4844,14 @@
         <v>380</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="M31" s="53"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="M31" s="54"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -4893,14 +4873,14 @@
       <c r="H32" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M32" s="53"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="54"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>407</v>
@@ -4918,22 +4898,22 @@
         <v>380</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="M33" s="53"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M33" s="54"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="A34" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D34" s="1">
         <v>720</v>
@@ -4947,14 +4927,14 @@
       <c r="H34" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M34" s="53"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="54"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>407</v>
@@ -4971,14 +4951,14 @@
       <c r="H35" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M35" s="53"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M35" s="54"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>407</v>
@@ -4999,16 +4979,16 @@
         <v>382</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M36" s="53"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="M36" s="54"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>407</v>
@@ -5026,22 +5006,22 @@
         <v>380</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="M37" s="53"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="M37" s="54"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D38" s="1">
         <v>20</v>
@@ -5055,17 +5035,17 @@
       <c r="H38" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M38" s="53"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="54"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D39" s="1">
         <v>20</v>
@@ -5079,17 +5059,17 @@
       <c r="H39" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M39" s="53"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="54"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D40" s="1">
         <v>75</v>
@@ -5103,17 +5083,17 @@
       <c r="H40" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M40" s="53"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="54"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1">
       <c r="A41" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5127,17 +5107,17 @@
       <c r="H41" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M41" s="53"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M41" s="54"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D42" s="1">
         <v>55</v>
@@ -5151,55 +5131,55 @@
       <c r="H42" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="M42" s="53"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="54"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1">
       <c r="A43" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D43" s="31">
         <v>20</v>
       </c>
       <c r="E43" s="31"/>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="47"/>
-      <c r="M43" s="53"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="48"/>
+      <c r="M43" s="54"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1">
       <c r="A44" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>577</v>
-      </c>
       <c r="C44" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D44" s="31">
         <v>20</v>
       </c>
       <c r="E44" s="31"/>
-      <c r="F44" s="45" t="s">
+      <c r="F44" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
-      <c r="M44" s="53"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
+      <c r="M44" s="54"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1">
       <c r="A45" s="31" t="s">
         <v>94</v>
       </c>
@@ -5207,21 +5187,21 @@
         <v>400</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D45" s="31">
         <v>30</v>
       </c>
       <c r="E45" s="31"/>
-      <c r="F45" s="45" t="s">
+      <c r="F45" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>410</v>
       </c>
@@ -5235,16 +5215,16 @@
         <v>19</v>
       </c>
       <c r="E46" s="31"/>
-      <c r="F46" s="45" t="s">
+      <c r="F46" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="54"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="48"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="C47" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5266,30 +5246,30 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5336,7 +5316,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5370,7 +5350,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5404,7 +5384,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5415,7 +5395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5426,7 +5406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5437,7 +5417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5448,7 +5428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5459,7 +5439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -5470,7 +5450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5481,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5492,7 +5472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5503,7 +5483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5514,7 +5494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -5525,7 +5505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -5536,7 +5516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5547,7 +5527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5558,7 +5538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5569,7 +5549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5580,7 +5560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5591,7 +5571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5602,7 +5582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5613,7 +5593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5624,7 +5604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -5635,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -5657,25 +5637,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5722,7 +5702,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5756,7 +5736,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5790,7 +5770,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5802,7 +5782,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,7 +5793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5824,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5835,7 +5815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5846,7 +5826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -5868,7 +5848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -5879,7 +5859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -5890,7 +5870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -5901,7 +5881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -5912,7 +5892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -5934,25 +5914,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5999,7 +5979,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6033,7 +6013,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6067,7 +6047,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6078,7 +6058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6089,7 +6069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6100,7 +6080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6111,7 +6091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6122,7 +6102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6133,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6144,7 +6124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -6168,60 +6148,60 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="0.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="0.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="0.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="0.85546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="0.85546875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="0.85546875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="55" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="0.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="0.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="0.88671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="0.88671875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="0.88671875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="0.88671875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="0.88671875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="8.85546875" style="1"/>
+    <col min="58" max="58" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -6265,7 +6245,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -6309,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="B3" s="15" t="s">
         <v>108</v>
       </c>
@@ -6389,7 +6369,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6469,7 +6449,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6549,7 +6529,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -6629,7 +6609,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -6709,7 +6689,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6789,7 +6769,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -6869,7 +6849,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -6949,7 +6929,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7029,7 +7009,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7109,7 +7089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7189,7 +7169,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -7263,7 +7243,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7325,7 +7305,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -7387,7 +7367,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -7443,7 +7423,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7493,7 +7473,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -7531,7 +7511,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7563,7 +7543,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7589,7 +7569,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -7615,7 +7595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -7641,7 +7621,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7667,7 +7647,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -7693,7 +7673,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -7719,7 +7699,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
         <v>336</v>
       </c>
@@ -7745,7 +7725,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -7759,62 +7739,62 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:40">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:40">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:40">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:40">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:40">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:40">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:40">
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -7822,7 +7802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:40">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="J42" s="16"/>
@@ -7851,26 +7831,26 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="1"/>
+    <col min="12" max="12" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25.95" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>164</v>
       </c>
@@ -7917,7 +7897,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1">
       <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
@@ -7954,7 +7934,7 @@
       </c>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
@@ -7979,7 +7959,7 @@
       </c>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
@@ -8004,7 +7984,7 @@
       </c>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
@@ -8029,7 +8009,7 @@
       </c>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1">
       <c r="A6" s="29" t="s">
         <v>73</v>
       </c>
@@ -8054,7 +8034,7 @@
       </c>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="A7" s="39" t="s">
         <v>37</v>
       </c>
@@ -8079,7 +8059,7 @@
       </c>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
@@ -8104,7 +8084,7 @@
       </c>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>341</v>
       </c>
@@ -8139,7 +8119,7 @@
       </c>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="31" t="s">
         <v>343</v>
       </c>
@@ -8176,7 +8156,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="31" t="s">
         <v>182</v>
       </c>
@@ -8213,7 +8193,7 @@
       </c>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" s="31" t="s">
         <v>346</v>
       </c>
@@ -8248,7 +8228,7 @@
       </c>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1">
       <c r="A13" s="31" t="s">
         <v>348</v>
       </c>
@@ -8283,7 +8263,7 @@
       </c>
       <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
       <c r="A14" s="31" t="s">
         <v>350</v>
       </c>
@@ -8318,7 +8298,7 @@
       </c>
       <c r="O14" s="35"/>
     </row>
-    <row r="15" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1">
       <c r="A15" s="31" t="s">
         <v>353</v>
       </c>
@@ -8353,7 +8333,7 @@
       </c>
       <c r="O15" s="35"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="39" t="s">
         <v>34</v>
       </c>
@@ -8378,7 +8358,7 @@
       </c>
       <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
         <v>35</v>
       </c>
@@ -8415,7 +8395,7 @@
       </c>
       <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1">
       <c r="A18" s="31" t="s">
         <v>38</v>
       </c>
@@ -8452,7 +8432,7 @@
       </c>
       <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="29.4" thickBot="1">
       <c r="A19" s="31" t="s">
         <v>39</v>
       </c>
@@ -8489,7 +8469,7 @@
       </c>
       <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="31" t="s">
         <v>12</v>
       </c>
@@ -8524,7 +8504,7 @@
       </c>
       <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1">
       <c r="A21" s="31" t="s">
         <v>163</v>
       </c>
@@ -8559,7 +8539,7 @@
       </c>
       <c r="O21" s="35"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1">
       <c r="A22" s="31" t="s">
         <v>36</v>
       </c>
@@ -8597,25 +8577,25 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -8656,7 +8636,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>492</v>
       </c>
@@ -8672,20 +8652,20 @@
       <c r="E2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="43" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="25.95" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
@@ -8718,9 +8698,9 @@
       <c r="L3" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
@@ -8749,9 +8729,9 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
@@ -8780,9 +8760,9 @@
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>71</v>
       </c>
@@ -8811,9 +8791,9 @@
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>73</v>
       </c>
@@ -8842,9 +8822,9 @@
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -8877,9 +8857,9 @@
         <v>393</v>
       </c>
       <c r="L8" s="31"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>413</v>
       </c>
@@ -8910,9 +8890,9 @@
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A10" s="31" t="s">
         <v>37</v>
       </c>
@@ -8943,9 +8923,9 @@
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -8976,9 +8956,9 @@
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
         <v>120</v>
       </c>
@@ -9009,9 +8989,9 @@
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
         <v>42</v>
       </c>
@@ -9042,9 +9022,9 @@
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
         <v>43</v>
       </c>
@@ -9075,9 +9055,9 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
         <v>398</v>
       </c>
@@ -9106,9 +9086,9 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="44"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
         <v>399</v>
       </c>
@@ -9141,9 +9121,9 @@
       <c r="L16" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="M16" s="44"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
@@ -9174,9 +9154,9 @@
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="44"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.2" customHeight="1" thickBot="1">
       <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
@@ -9207,9 +9187,9 @@
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-      <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
@@ -9242,59 +9222,59 @@
       <c r="L19" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A20" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D20" s="31">
         <v>20</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" ht="30.6" customHeight="1" thickBot="1">
       <c r="A21" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>577</v>
-      </c>
       <c r="C21" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D21" s="31">
         <v>20</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="44"/>
-    </row>
-    <row r="22" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A22" s="31" t="s">
         <v>94</v>
       </c>
@@ -9302,24 +9282,24 @@
         <v>400</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D22" s="31">
         <v>30</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-      <c r="M22" s="44"/>
-    </row>
-    <row r="23" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13" ht="22.95" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>410</v>
       </c>
@@ -9333,16 +9313,16 @@
         <v>19</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
-      <c r="M23" s="44"/>
+      <c r="M23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9366,24 +9346,24 @@
       <selection activeCell="M2" sqref="M2:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -9424,7 +9404,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>419</v>
       </c>
@@ -9440,20 +9420,20 @@
       <c r="E2" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="48" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="49" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>422</v>
       </c>
@@ -9484,9 +9464,9 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="48"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
         <v>424</v>
       </c>
@@ -9517,9 +9497,9 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="48"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="49"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -9544,9 +9524,9 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="48"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -9571,9 +9551,9 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -9598,9 +9578,9 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.899999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="49"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.95" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -9625,9 +9605,9 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="49"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -9660,17 +9640,17 @@
         <v>393</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="48"/>
-    </row>
-    <row r="10" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
       <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D10" s="31">
         <v>20</v>
@@ -9693,9 +9673,9 @@
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="48"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -9722,15 +9702,15 @@
         <v>460</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>465</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="48"/>
-    </row>
-    <row r="12" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="49"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9761,9 +9741,9 @@
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="48"/>
-    </row>
-    <row r="13" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="49"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
         <v>102</v>
       </c>
@@ -9796,9 +9776,9 @@
         <v>469</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
         <v>103</v>
       </c>
@@ -9829,9 +9809,9 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="48"/>
-    </row>
-    <row r="15" spans="1:13" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.95" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
@@ -9866,9 +9846,9 @@
         <v>466</v>
       </c>
       <c r="L15" s="31"/>
-      <c r="M15" s="48"/>
-    </row>
-    <row r="16" spans="1:13" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.2" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
         <v>431</v>
       </c>
@@ -9894,9 +9874,9 @@
       <c r="J16" s="41"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="48"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="49"/>
+    </row>
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
         <v>88</v>
       </c>
@@ -9925,59 +9905,59 @@
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A18" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D18" s="31">
         <v>20</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="48"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A19" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>577</v>
-      </c>
       <c r="C19" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D19" s="31">
         <v>20</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A20" s="31" t="s">
         <v>94</v>
       </c>
@@ -9985,24 +9965,24 @@
         <v>400</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D20" s="31">
         <v>30</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="48"/>
-    </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>410</v>
       </c>
@@ -10016,14 +9996,14 @@
         <v>19</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="M21" s="48"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="M21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10046,25 +10026,25 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10105,7 +10085,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>436</v>
       </c>
@@ -10121,20 +10101,20 @@
       <c r="E2" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="50" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>422</v>
       </c>
@@ -10165,9 +10145,9 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="50"/>
-    </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="51"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A4" s="31" t="s">
         <v>424</v>
       </c>
@@ -10198,9 +10178,9 @@
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="51"/>
+    </row>
+    <row r="5" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -10225,9 +10205,9 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -10252,9 +10232,9 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>71</v>
       </c>
@@ -10279,9 +10259,9 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="1:13" ht="21.6" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -10306,9 +10286,9 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="50"/>
-    </row>
-    <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -10341,17 +10321,17 @@
         <v>393</v>
       </c>
       <c r="L9" s="31"/>
-      <c r="M9" s="50"/>
-    </row>
-    <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D10" s="31">
         <v>20</v>
@@ -10374,9 +10354,9 @@
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
-      <c r="M10" s="50"/>
-    </row>
-    <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -10403,15 +10383,15 @@
         <v>460</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="50"/>
-    </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -10444,9 +10424,9 @@
       <c r="L12" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="M12" s="50"/>
-    </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>440</v>
       </c>
@@ -10481,9 +10461,9 @@
         <v>476</v>
       </c>
       <c r="L13" s="31"/>
-      <c r="M13" s="50"/>
-    </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A14" s="31" t="s">
         <v>106</v>
       </c>
@@ -10518,9 +10498,9 @@
         <v>475</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="50"/>
-    </row>
-    <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A15" s="31" t="s">
         <v>107</v>
       </c>
@@ -10551,59 +10531,59 @@
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="50"/>
-    </row>
-    <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A16" s="31" t="s">
         <v>312</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D16" s="31">
         <v>20</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="M16" s="50"/>
-    </row>
-    <row r="17" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>577</v>
-      </c>
       <c r="C17" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D17" s="31">
         <v>20</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="M17" s="50"/>
-    </row>
-    <row r="18" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A18" s="31" t="s">
         <v>94</v>
       </c>
@@ -10611,24 +10591,24 @@
         <v>400</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D18" s="31">
         <v>30</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-      <c r="M18" s="50"/>
-    </row>
-    <row r="19" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="1:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>410</v>
       </c>
@@ -10642,16 +10622,16 @@
         <v>19</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
-      <c r="M19" s="50"/>
+      <c r="M19" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10675,26 +10655,26 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -10741,7 +10721,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -10773,7 +10753,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10805,7 +10785,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -10816,7 +10796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -10827,7 +10807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -10838,7 +10818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -10849,7 +10829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -10860,7 +10840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -10871,7 +10851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -10882,7 +10862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -10893,7 +10873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -10908,7 +10888,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="49.65" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -10922,7 +10902,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -10933,7 +10913,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -10944,7 +10924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -10968,36 +10948,36 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -11071,7 +11051,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11145,7 +11125,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -11155,20 +11135,20 @@
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I4" s="51" t="s">
+    <row r="4" spans="1:24">
+      <c r="I4" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">
         <v>164</v>
       </c>
@@ -11221,7 +11201,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -11256,7 +11236,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -11291,7 +11271,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -11305,7 +11285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -11319,7 +11299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -11333,7 +11313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -11347,7 +11327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -11361,7 +11341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -11375,7 +11355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -11389,7 +11369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -11403,7 +11383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -11417,7 +11397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -11431,7 +11411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>249</v>
       </c>
@@ -11445,7 +11425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -11459,7 +11439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -11473,7 +11453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -11487,7 +11467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -11501,7 +11481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -11515,7 +11495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -11529,7 +11509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -11543,7 +11523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -11557,7 +11537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
@@ -11571,7 +11551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -11585,7 +11565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -11615,37 +11595,37 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -11722,7 +11702,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11799,20 +11779,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I3" s="51" t="s">
+    <row r="3" spans="1:25">
+      <c r="I3" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-    </row>
-    <row r="4" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
@@ -11865,7 +11845,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -11900,7 +11880,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -11935,7 +11915,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -11949,7 +11929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -11963,7 +11943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -11977,7 +11957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -11991,7 +11971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -12005,7 +11985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -12019,7 +11999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -12033,7 +12013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -12050,7 +12030,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -12067,7 +12047,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -12084,7 +12064,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -12101,7 +12081,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -12118,7 +12098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -12135,7 +12115,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -12152,7 +12132,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -12169,7 +12149,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -12186,7 +12166,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -12203,7 +12183,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -12220,7 +12200,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -12237,7 +12217,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -12254,7 +12234,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -12271,7 +12251,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -12288,7 +12268,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
